--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B70359-A518-4113-831D-65FA81A8C31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB871B6A-96DE-45E0-A409-69BB99FD179D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="520">
   <si>
     <t>rowid</t>
   </si>
@@ -1101,351 +1101,351 @@
     <t>UAT5</t>
   </si>
   <si>
-    <t>UAT5_08102019111016</t>
-  </si>
-  <si>
-    <t>UAT508102019111016</t>
+    <t>UAT5_26082020153847</t>
+  </si>
+  <si>
+    <t>UAT526082020153847</t>
+  </si>
+  <si>
+    <t>FACILITY-A_26082020134923VQX</t>
+  </si>
+  <si>
+    <t>19-Dec-2011</t>
+  </si>
+  <si>
+    <t>Sales Group 1</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>Hood,  Robin</t>
+  </si>
+  <si>
+    <t>%AU-OBU</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>LENDING</t>
+  </si>
+  <si>
+    <t>Lending,  Ops</t>
+  </si>
+  <si>
+    <t>GCP</t>
+  </si>
+  <si>
+    <t>General Corp Purpose</t>
+  </si>
+  <si>
+    <t>499,815,787.36</t>
+  </si>
+  <si>
+    <t>IT_COL</t>
+  </si>
+  <si>
+    <t>Sydney, Australia</t>
+  </si>
+  <si>
+    <t>BBSW - Mid</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Base Rate and Spread Only By Formula</t>
+  </si>
+  <si>
+    <t>(Base + Spread + RAC) * PCT</t>
+  </si>
+  <si>
+    <t>Modified Following Business Day</t>
+  </si>
+  <si>
+    <t>Start of next cycle</t>
+  </si>
+  <si>
+    <t>Start of next interest cycle</t>
+  </si>
+  <si>
+    <t>COMMONWEALTH BANK AU-DBU</t>
+  </si>
+  <si>
+    <t>RE_RES</t>
+  </si>
+  <si>
+    <t>Origination</t>
+  </si>
+  <si>
+    <t>124,605,140.61</t>
+  </si>
+  <si>
+    <t>Hold for Investment - Australia</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank of Australia - DBU</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>FACILITY-B_08102019114949AGS</t>
+  </si>
+  <si>
+    <t>13,691,190.48</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>FACILITY-C_08102019115619IXL</t>
+  </si>
+  <si>
+    <t>22,912,744.60</t>
+  </si>
+  <si>
+    <t>Facility_NamePrefix</t>
+  </si>
+  <si>
+    <t>Facility_Type</t>
+  </si>
+  <si>
+    <t>Facility_ProposedCmtAmt</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeDecreaseAmount</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeRemainingAmount</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeDecreaseAmtSched</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeRemainingAmtSched</t>
+  </si>
+  <si>
+    <t>Facility_Currency</t>
+  </si>
+  <si>
+    <t>Facility_AgreementDate</t>
+  </si>
+  <si>
+    <t>Facility_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Facility_ExpiryDate</t>
+  </si>
+  <si>
+    <t>Facility_MaturityDate</t>
+  </si>
+  <si>
+    <t>Facility_ServicingGroup</t>
+  </si>
+  <si>
+    <t>Facility_Customer</t>
+  </si>
+  <si>
+    <t>Facility_RiskType</t>
+  </si>
+  <si>
+    <t>Facility_LoanPurposeType</t>
+  </si>
+  <si>
+    <t>Facility_GlobalLimit</t>
+  </si>
+  <si>
+    <t>Facility_SGLocation</t>
+  </si>
+  <si>
+    <t>Facility_Borrower</t>
+  </si>
+  <si>
+    <t>Borrower_Currency</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerMaturity</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerSGName</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerPercent</t>
+  </si>
+  <si>
+    <t>CurrencyLimit</t>
+  </si>
+  <si>
+    <t>Facility_SIC</t>
+  </si>
+  <si>
+    <t>Facility_OwningBranch</t>
+  </si>
+  <si>
+    <t>Facility_FundingDesk</t>
+  </si>
+  <si>
+    <t>Facility_ProcessingArea</t>
+  </si>
+  <si>
+    <t>CBA_UAT_05</t>
+  </si>
+  <si>
+    <t>FACILITY-A_</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>3,435,325.23</t>
+  </si>
+  <si>
+    <t>121,169,815.38</t>
+  </si>
+  <si>
+    <t>28-Nov-2018</t>
+  </si>
+  <si>
+    <t>31-Dec-2021</t>
+  </si>
+  <si>
+    <t>16-Dec-2011</t>
+  </si>
+  <si>
+    <t>Refinance of Existing CBA/BW Loan</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>100.000000%</t>
+  </si>
+  <si>
+    <t>8432 - AU / Technical And Further Education</t>
+  </si>
+  <si>
+    <t>Australian (Sydney)</t>
+  </si>
+  <si>
+    <t>Agency Australia</t>
+  </si>
+  <si>
+    <t>FACILITY-B_</t>
+  </si>
+  <si>
+    <t>FACILITY-C_</t>
+  </si>
+  <si>
+    <t>Interest_AddItem</t>
+  </si>
+  <si>
+    <t>Interest_OptionName</t>
+  </si>
+  <si>
+    <t>Interest_RateBasis</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode_Formula</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode_SpreadVar</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode</t>
+  </si>
+  <si>
+    <t>Penalty_Spread</t>
+  </si>
+  <si>
+    <t>Penalty_Status</t>
+  </si>
+  <si>
+    <t>MIS_Code</t>
+  </si>
+  <si>
+    <t>MIS_Value</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Actual/365</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>( BBSW  + Spread (Spread_Var%) ) X PCT (1)</t>
+  </si>
+  <si>
+    <t>Spread_Var</t>
+  </si>
+  <si>
+    <t>( BBSW  + Spread (1.7%) ) X PCT (1)</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>RPLIM</t>
+  </si>
+  <si>
+    <t>RPL_Y</t>
+  </si>
+  <si>
+    <t>Facility_RowID</t>
+  </si>
+  <si>
+    <t>Loan_Alias</t>
+  </si>
+  <si>
+    <t>Borrower_Name</t>
+  </si>
+  <si>
+    <t>Pricing_Option</t>
+  </si>
+  <si>
+    <t>Outstanding_Type</t>
+  </si>
+  <si>
+    <t>Outstanding_Currency</t>
+  </si>
+  <si>
+    <t>Loan_RequestedAmount</t>
+  </si>
+  <si>
+    <t>Loan_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Loan_MaturityDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingFrequency</t>
+  </si>
+  <si>
+    <t>Loan_BorrowerBaseRate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingSingleCashflow</t>
+  </si>
+  <si>
+    <t>Remittance_Description</t>
   </si>
   <si>
     <t>FACILITY-A_08102019114315QEE</t>
   </si>
   <si>
-    <t>19-Dec-2011</t>
-  </si>
-  <si>
-    <t>Sales Group 1</t>
-  </si>
-  <si>
-    <t>1011956</t>
-  </si>
-  <si>
-    <t>RH</t>
-  </si>
-  <si>
-    <t>HOOD</t>
-  </si>
-  <si>
-    <t>Hood,  Robin</t>
-  </si>
-  <si>
-    <t>%DBU</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>LENDING</t>
-  </si>
-  <si>
-    <t>Lending,  Ops</t>
-  </si>
-  <si>
-    <t>GCP</t>
-  </si>
-  <si>
-    <t>General Corp Purpose</t>
-  </si>
-  <si>
-    <t>499,815,787.36</t>
-  </si>
-  <si>
-    <t>IT_COL</t>
-  </si>
-  <si>
-    <t>Sydney, Australia</t>
-  </si>
-  <si>
-    <t>BBSW - Mid</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Base Rate and Spread Only By Formula</t>
-  </si>
-  <si>
-    <t>(Base + Spread + RAC) * PCT</t>
-  </si>
-  <si>
-    <t>Modified Following Business Day</t>
-  </si>
-  <si>
-    <t>Start of next cycle</t>
-  </si>
-  <si>
-    <t>Start of next interest cycle</t>
-  </si>
-  <si>
-    <t>COMMONWEALTH BANK AU-DBU</t>
-  </si>
-  <si>
-    <t>RE_RES</t>
-  </si>
-  <si>
-    <t>Origination</t>
-  </si>
-  <si>
-    <t>124,605,140.61</t>
-  </si>
-  <si>
-    <t>Hold for Investment - Australia</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank of Australia - DBU</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>FACILITY-B_08102019114949AGS</t>
-  </si>
-  <si>
-    <t>13,691,190.48</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>FACILITY-C_08102019115619IXL</t>
-  </si>
-  <si>
-    <t>22,912,744.60</t>
-  </si>
-  <si>
-    <t>Facility_NamePrefix</t>
-  </si>
-  <si>
-    <t>Facility_Type</t>
-  </si>
-  <si>
-    <t>Facility_ProposedCmtAmt</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeDecreaseAmount</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeRemainingAmount</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeDecreaseAmtSched</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeRemainingAmtSched</t>
-  </si>
-  <si>
-    <t>Facility_Currency</t>
-  </si>
-  <si>
-    <t>Facility_AgreementDate</t>
-  </si>
-  <si>
-    <t>Facility_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Facility_ExpiryDate</t>
-  </si>
-  <si>
-    <t>Facility_MaturityDate</t>
-  </si>
-  <si>
-    <t>Facility_ServicingGroup</t>
-  </si>
-  <si>
-    <t>Facility_Customer</t>
-  </si>
-  <si>
-    <t>Facility_RiskType</t>
-  </si>
-  <si>
-    <t>Facility_LoanPurposeType</t>
-  </si>
-  <si>
-    <t>Facility_GlobalLimit</t>
-  </si>
-  <si>
-    <t>Facility_SGLocation</t>
-  </si>
-  <si>
-    <t>Facility_Borrower</t>
-  </si>
-  <si>
-    <t>Borrower_Currency</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerMaturity</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerSGName</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerPercent</t>
-  </si>
-  <si>
-    <t>CurrencyLimit</t>
-  </si>
-  <si>
-    <t>Facility_SIC</t>
-  </si>
-  <si>
-    <t>Facility_OwningBranch</t>
-  </si>
-  <si>
-    <t>Facility_FundingDesk</t>
-  </si>
-  <si>
-    <t>Facility_ProcessingArea</t>
-  </si>
-  <si>
-    <t>CBA_UAT_05</t>
-  </si>
-  <si>
-    <t>FACILITY-A_</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>3,435,325.23</t>
-  </si>
-  <si>
-    <t>121,169,815.38</t>
-  </si>
-  <si>
-    <t>28-Nov-2018</t>
-  </si>
-  <si>
-    <t>31-Dec-2021</t>
-  </si>
-  <si>
-    <t>16-Dec-2011</t>
-  </si>
-  <si>
-    <t>Refinance of Existing CBA/BW Loan</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>100.000000%</t>
-  </si>
-  <si>
-    <t>8432 - AU / Technical And Further Education</t>
-  </si>
-  <si>
-    <t>Australian (Sydney)</t>
-  </si>
-  <si>
-    <t>Agency Australia</t>
-  </si>
-  <si>
-    <t>FACILITY-B_</t>
-  </si>
-  <si>
-    <t>FACILITY-C_</t>
-  </si>
-  <si>
-    <t>Interest_AddItem</t>
-  </si>
-  <si>
-    <t>Interest_OptionName</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode_Formula</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode_SpreadVar</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode</t>
-  </si>
-  <si>
-    <t>Penalty_Spread</t>
-  </si>
-  <si>
-    <t>Penalty_Status</t>
-  </si>
-  <si>
-    <t>MIS_Code</t>
-  </si>
-  <si>
-    <t>MIS_Value</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>Actual/365</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>( BBSW  + Spread (Spread_Var%) ) X PCT (1)</t>
-  </si>
-  <si>
-    <t>Spread_Var</t>
-  </si>
-  <si>
-    <t>( BBSW  + Spread (1.7%) ) X PCT (1)</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>RPLIM</t>
-  </si>
-  <si>
-    <t>RPL_Y</t>
-  </si>
-  <si>
-    <t>Facility_RowID</t>
-  </si>
-  <si>
-    <t>Loan_Alias</t>
-  </si>
-  <si>
-    <t>Borrower_Name</t>
-  </si>
-  <si>
-    <t>Pricing_Option</t>
-  </si>
-  <si>
-    <t>Outstanding_Type</t>
-  </si>
-  <si>
-    <t>Outstanding_Currency</t>
-  </si>
-  <si>
-    <t>Loan_RequestedAmount</t>
-  </si>
-  <si>
-    <t>Loan_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Loan_MaturityDate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingDate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingFrequency</t>
-  </si>
-  <si>
-    <t>Loan_BorrowerBaseRate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingSingleCashflow</t>
-  </si>
-  <si>
-    <t>Remittance_Description</t>
-  </si>
-  <si>
     <t>60000017</t>
   </si>
   <si>
@@ -1557,7 +1557,7 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>SANSEERA ELECTRONICS LTD1011954</t>
+    <t>SANSEERA ELECTRONICS LTD 1914539</t>
   </si>
   <si>
     <t>Awaiting release</t>
@@ -2133,8 +2133,8 @@
   <dimension ref="A1:CP2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2534,8 +2534,8 @@
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3494,7 +3494,9 @@
   </sheetPr>
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="AU1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3752,49 +3754,49 @@
         <v>360</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>299</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>299</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="23" t="s">
         <v>370</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>371</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>211</v>
@@ -3803,52 +3805,52 @@
         <v>249</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AM2" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="AT2" s="1">
         <v>100</v>
@@ -3857,19 +3859,19 @@
         <v>100</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>299</v>
       </c>
       <c r="AX2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>359</v>
@@ -3877,24 +3879,24 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +3913,9 @@
   </sheetPr>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3959,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>304</v>
@@ -3971,88 +3975,88 @@
         <v>310</v>
       </c>
       <c r="G1" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="Y1" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE1" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="AD1" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>419</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -4060,10 +4064,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>421</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>422</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>356</v>
@@ -4075,114 +4079,114 @@
         <v>240</v>
       </c>
       <c r="G2" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="L2" s="16" t="s">
         <v>426</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>427</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>240</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>359</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T2" s="31" t="s">
         <v>255</v>
       </c>
       <c r="U2" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="V2" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="W2" s="16" t="s">
         <v>215</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>240</v>
       </c>
       <c r="Z2" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB2" s="16" t="s">
         <v>430</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>431</v>
       </c>
       <c r="AC2" s="16" t="s">
         <v>240</v>
       </c>
       <c r="AD2" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AE2" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG2" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="AF2" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AH2" s="16" t="s">
         <v>433</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>240</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
@@ -4191,93 +4195,93 @@
         <v>240</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>359</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T3" s="31" t="s">
         <v>255</v>
       </c>
       <c r="U3" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="V3" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>215</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="Y3" s="16" t="s">
         <v>240</v>
       </c>
       <c r="Z3" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB3" s="16" t="s">
         <v>430</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB3" s="16" t="s">
-        <v>431</v>
       </c>
       <c r="AC3" s="16" t="s">
         <v>240</v>
       </c>
       <c r="AD3" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AE3" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG3" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="AF3" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AH3" s="16" t="s">
         <v>433</v>
-      </c>
-      <c r="AH3" s="16" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>240</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
@@ -4286,67 +4290,67 @@
         <v>240</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>359</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S4" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T4" s="31" t="s">
         <v>255</v>
       </c>
       <c r="U4" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="V4" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="W4" s="16" t="s">
         <v>215</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="16" t="s">
         <v>240</v>
       </c>
       <c r="Z4" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB4" s="16" t="s">
         <v>430</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB4" s="16" t="s">
-        <v>431</v>
       </c>
       <c r="AC4" s="16" t="s">
         <v>240</v>
       </c>
       <c r="AD4" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AE4" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG4" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="AF4" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG4" s="16" t="s">
+      <c r="AH4" s="16" t="s">
         <v>433</v>
-      </c>
-      <c r="AH4" s="16" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -4393,37 +4397,37 @@
         <v>306</v>
       </c>
       <c r="D1" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>446</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4431,131 +4435,131 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>358</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K2" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="H3" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="H4" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K4" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -4570,10 +4574,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4584,22 +4588,22 @@
     <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24" style="1" customWidth="1"/>
-    <col min="17" max="17" width="30.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4610,55 +4614,58 @@
         <v>304</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>306</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="J1" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="R1" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -4672,52 +4679,52 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>471</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>374</v>
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>215</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>427</v>
-      </c>
       <c r="N2" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>477</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>239</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>299</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>478</v>
@@ -4744,12 +4751,15 @@
         <v>478</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>353</v>
@@ -4761,52 +4771,52 @@
         <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>479</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>374</v>
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>215</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>427</v>
-      </c>
       <c r="N3" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>239</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>299</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>478</v>
@@ -4833,12 +4843,15 @@
         <v>478</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>353</v>
@@ -4847,55 +4860,55 @@
         <v>356</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>483</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>374</v>
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>215</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K4" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>427</v>
-      </c>
       <c r="N4" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>239</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>299</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>478</v>
@@ -4922,10 +4935,13 @@
         <v>478</v>
       </c>
       <c r="AC4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>487</v>
       </c>
@@ -4936,55 +4952,55 @@
         <v>356</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>488</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>374</v>
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>215</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="L5" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>427</v>
-      </c>
       <c r="N5" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>239</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>299</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>478</v>
@@ -5011,6 +5027,9 @@
         <v>478</v>
       </c>
       <c r="AC5" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5073,10 +5092,10 @@
         <v>490</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>491</v>
@@ -5097,7 +5116,7 @@
         <v>496</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O1" s="42" t="s">
         <v>312</v>
@@ -5115,7 +5134,7 @@
         <v>500</v>
       </c>
       <c r="T1" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U1" s="39" t="s">
         <v>501</v>
@@ -5129,13 +5148,13 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>356</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>255</v>
@@ -5144,7 +5163,7 @@
         <v>471</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>503</v>
@@ -5163,10 +5182,10 @@
         <v>506</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="P2" s="41" t="s">
         <v>299</v>
@@ -5181,7 +5200,7 @@
         <v>507</v>
       </c>
       <c r="T2" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U2" t="s">
         <v>508</v>
@@ -5224,16 +5243,16 @@
     </row>
     <row r="3" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>356</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>255</v>
@@ -5242,7 +5261,7 @@
         <v>479</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>510</v>
@@ -5263,10 +5282,10 @@
         <v>506</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="P3" s="41" t="s">
         <v>299</v>
@@ -5281,7 +5300,7 @@
         <v>514</v>
       </c>
       <c r="T3" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U3" t="s">
         <v>508</v>
@@ -5324,16 +5343,16 @@
     </row>
     <row r="4" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>356</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>255</v>
@@ -5342,13 +5361,13 @@
         <v>483</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>515</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J4" s="36" t="s">
         <v>515</v>
@@ -5363,10 +5382,10 @@
         <v>506</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="P4" s="41" t="s">
         <v>299</v>
@@ -5381,7 +5400,7 @@
         <v>518</v>
       </c>
       <c r="T4" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U4" t="s">
         <v>508</v>
@@ -5427,13 +5446,13 @@
         <v>487</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>255</v>
@@ -5442,10 +5461,10 @@
         <v>488</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>489</v>
@@ -5461,10 +5480,10 @@
         <v>506</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="P5" s="41" t="s">
         <v>299</v>
@@ -5479,7 +5498,7 @@
         <v>476</v>
       </c>
       <c r="T5" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U5" t="s">
         <v>508</v>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF4627B-99CB-4FBA-9E80-10E4D7364DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B776C168-1E21-4338-B47C-FE3B93364FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="29070" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -22,11 +17,12 @@
     <sheet name="SERV08C_ComprehensiveRepricing" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="523">
   <si>
     <t>rowid</t>
   </si>
@@ -744,9 +740,6 @@
     <t>High Value Local RTGS (AUD)</t>
   </si>
   <si>
-    <t>RTGSAUD1-5808</t>
-  </si>
-  <si>
     <t>RTGS-AUD2521</t>
   </si>
   <si>
@@ -1597,6 +1590,12 @@
   </si>
   <si>
     <t>1914539</t>
+  </si>
+  <si>
+    <t>RTGSAUD1-5803</t>
+  </si>
+  <si>
+    <t>RTGS-AUD2525</t>
   </si>
 </sst>
 </file>
@@ -2540,8 +2539,8 @@
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3091,13 +3090,13 @@
         <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>209</v>
@@ -3127,7 +3126,7 @@
         <v>217</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>218</v>
@@ -3202,28 +3201,28 @@
         <v>237</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>238</v>
+        <v>521</v>
       </c>
       <c r="AO2" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="AV2" s="8" t="s">
         <v>54</v>
@@ -3232,216 +3231,216 @@
         <v>54</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AY2" s="8" t="s">
         <v>66</v>
       </c>
       <c r="AZ2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA2" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="BA2" s="8" t="s">
+      <c r="BB2" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BC2" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="BC2" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="BD2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="BE2" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF2" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="BF2" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="BG2" s="8" t="s">
         <v>215</v>
       </c>
       <c r="BH2" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BI2" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="BJ2" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="BK2" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BL2" s="8" t="s">
         <v>220</v>
       </c>
       <c r="BM2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN2" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BO2" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BP2" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BQ2" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BR2" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="BR2" s="16" t="s">
+      <c r="BS2" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="BT2" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="BS2" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="BT2" s="16" t="s">
+      <c r="BU2" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BV2" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BW2" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BX2" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="BX2" s="8" t="s">
+      <c r="BY2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="CB2" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="CA2" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="CB2" s="16" t="s">
+      <c r="CC2" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="CC2" s="16" t="s">
+      <c r="CD2" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="CD2" s="16" t="s">
+      <c r="CE2" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="CF2" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="CG2" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="CE2" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="CF2" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="CG2" s="8" t="s">
+      <c r="CH2" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="CH2" s="8" t="s">
+      <c r="CI2" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="CI2" s="8" t="s">
+      <c r="CJ2" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="CK2" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="CL2" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="CJ2" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="CK2" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="CL2" s="8" t="s">
+      <c r="CM2" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="CM2" s="17" t="s">
+      <c r="CN2" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="CN2" s="17" t="s">
+      <c r="CO2" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="CO2" s="17" t="s">
+      <c r="CP2" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="CP2" s="17" t="s">
+      <c r="CQ2" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="CQ2" s="17" t="s">
+      <c r="CR2" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="CR2" s="17" t="s">
+      <c r="CS2" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="CS2" s="17" t="s">
+      <c r="CT2" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="CT2" s="17" t="s">
+      <c r="CU2" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="CU2" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="CV2" s="8" t="s">
         <v>227</v>
       </c>
       <c r="CW2" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="CX2" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="CX2" s="17" t="s">
+      <c r="CY2" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="CY2" s="18" t="s">
+      <c r="CZ2" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="CZ2" s="8" t="s">
+      <c r="DA2" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="DA2" s="19" t="s">
+      <c r="DB2" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="DC2" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="DD2" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="DB2" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="DC2" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="DD2" s="19" t="s">
-        <v>289</v>
       </c>
       <c r="DE2" s="16"/>
       <c r="DF2" s="16"/>
       <c r="DG2" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="DH2" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="DI2" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="DH2" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="DI2" s="16" t="s">
+      <c r="DJ2" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="DJ2" s="16" t="s">
+      <c r="DK2" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="DK2" s="19" t="s">
+      <c r="DL2" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="DL2" s="16" t="s">
+      <c r="DM2" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="DN2" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="DM2" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="DN2" s="16" t="s">
+      <c r="DO2" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="DO2" s="16" t="s">
+      <c r="DP2" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="DP2" s="20" t="s">
-        <v>297</v>
-      </c>
       <c r="DQ2" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DR2" s="16" t="s">
         <v>226</v>
@@ -3456,7 +3455,7 @@
         <v>226</v>
       </c>
       <c r="DV2" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DW2" s="16" t="s">
         <v>225</v>
@@ -3477,13 +3476,13 @@
         <v>226</v>
       </c>
       <c r="EC2" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="ED2" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="ED2" s="21" t="s">
+      <c r="EE2" s="21" t="s">
         <v>300</v>
-      </c>
-      <c r="EE2" s="21" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3567,157 +3566,157 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="AY1" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
@@ -3725,136 +3724,136 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="23" t="s">
         <v>370</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>371</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>211</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AM2" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="AT2" s="1">
         <v>100</v>
@@ -3863,44 +3862,44 @@
         <v>100</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AX2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="BA2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3965,100 +3964,100 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="Y1" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE1" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="AD1" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>419</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -4066,293 +4065,293 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>425</v>
-      </c>
-      <c r="K2" s="31" t="s">
+      <c r="P2" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="N2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="U2" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="U2" s="16" t="s">
+      <c r="V2" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="W2" s="16" t="s">
         <v>215</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z2" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB2" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AC2" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE2" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="AC2" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AF2" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG2" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="AF2" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AH2" s="16" t="s">
         <v>433</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>388</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>389</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
       <c r="M3" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>215</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z3" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB3" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AC3" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE3" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="AC3" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AF3" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG3" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="AF3" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AH3" s="16" t="s">
         <v>433</v>
-      </c>
-      <c r="AH3" s="16" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>391</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>392</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
       <c r="M4" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N4" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="U4" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="U4" s="16" t="s">
+      <c r="V4" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="W4" s="16" t="s">
         <v>215</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z4" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB4" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AC4" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE4" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="AC4" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AF4" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG4" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="AF4" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG4" s="16" t="s">
+      <c r="AH4" s="16" t="s">
         <v>433</v>
-      </c>
-      <c r="AH4" s="16" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -4396,40 +4395,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D1" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>446</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4437,131 +4436,131 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K2" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="H3" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="H4" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K4" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -4613,52 +4612,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="22" t="s">
         <v>469</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>470</v>
       </c>
       <c r="S1" s="22" t="s">
         <v>204</v>
@@ -4669,85 +4668,85 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>476</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S2" t="s">
+        <v>298</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="R2" t="s">
-        <v>239</v>
-      </c>
-      <c r="S2" t="s">
-        <v>299</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>215</v>
@@ -4755,88 +4754,88 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>482</v>
-      </c>
       <c r="O3" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" t="s">
+        <v>238</v>
+      </c>
+      <c r="S3" t="s">
+        <v>298</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="R3" t="s">
-        <v>239</v>
-      </c>
-      <c r="S3" t="s">
-        <v>299</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>215</v>
@@ -4844,88 +4843,88 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="N4" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="N4" s="16" t="s">
+      <c r="O4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="Q4" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="R4" t="s">
+        <v>238</v>
+      </c>
+      <c r="S4" t="s">
+        <v>298</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="R4" t="s">
-        <v>239</v>
-      </c>
-      <c r="S4" t="s">
-        <v>299</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="U4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>215</v>
@@ -4933,88 +4932,88 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>489</v>
-      </c>
       <c r="L5" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="N5" s="16" t="s">
+      <c r="O5" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" t="s">
+        <v>238</v>
+      </c>
+      <c r="S5" t="s">
+        <v>298</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="R5" t="s">
-        <v>239</v>
-      </c>
-      <c r="S5" t="s">
-        <v>299</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="U5" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>215</v>
@@ -5070,64 +5069,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>458</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="37" t="s">
         <v>492</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>494</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>495</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1" s="37" t="s">
         <v>496</v>
       </c>
-      <c r="N1" s="37" t="s">
-        <v>460</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="39" t="s">
         <v>497</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="R1" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>499</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="U1" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="T1" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="U1" s="39" t="s">
+      <c r="V1" s="37" t="s">
         <v>501</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -5135,65 +5134,65 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="H2" s="31" t="s">
+      <c r="J2" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J2" s="36" t="s">
+      <c r="K2" s="36" t="s">
         <v>504</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>505</v>
       </c>
       <c r="L2" s="36"/>
       <c r="M2" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>238</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="S2" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="N2" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>239</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="S2" s="44" t="s">
+      <c r="T2" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="U2" t="s">
         <v>507</v>
       </c>
-      <c r="T2" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" s="45" t="s">
         <v>508</v>
-      </c>
-      <c r="V2" s="45" t="s">
-        <v>509</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -5230,70 +5229,70 @@
     </row>
     <row r="3" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="I3" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="H3" s="31" t="s">
+      <c r="J3" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="I3" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="J3" s="36" t="s">
+      <c r="K3" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>238</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="S3" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="M3" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="P3" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>239</v>
-      </c>
-      <c r="R3" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>514</v>
-      </c>
       <c r="T3" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U3" t="s">
+        <v>507</v>
+      </c>
+      <c r="V3" s="45" t="s">
         <v>508</v>
-      </c>
-      <c r="V3" s="45" t="s">
-        <v>509</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -5330,70 +5329,70 @@
     </row>
     <row r="4" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>389</v>
-      </c>
       <c r="H4" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="I4" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="K4" s="36" t="s">
+      <c r="L4" s="36" t="s">
         <v>516</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="M4" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>238</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="S4" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="M4" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="P4" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>239</v>
-      </c>
-      <c r="R4" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>518</v>
-      </c>
       <c r="T4" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U4" t="s">
+        <v>507</v>
+      </c>
+      <c r="V4" s="45" t="s">
         <v>508</v>
-      </c>
-      <c r="V4" s="45" t="s">
-        <v>509</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -5430,68 +5429,68 @@
     </row>
     <row r="5" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="I5" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>489</v>
-      </c>
       <c r="J5" s="36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L5" s="36"/>
       <c r="M5" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q5" t="s">
+        <v>238</v>
+      </c>
+      <c r="R5" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="R5" s="41" t="s">
-        <v>240</v>
-      </c>
       <c r="S5" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="T5" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U5" t="s">
+        <v>507</v>
+      </c>
+      <c r="V5" s="45" t="s">
         <v>508</v>
-      </c>
-      <c r="V5" s="45" t="s">
-        <v>509</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
@@ -3,13 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B776C168-1E21-4338-B47C-FE3B93364FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmamaril\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC157383-5C44-41E5-AFE1-929CED868152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="29070" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
-    <sheet name="ORIG03_Customer" sheetId="2" r:id="rId2"/>
+    <sheet name="PTY001_QuickPartyOnboarding" sheetId="8" r:id="rId1"/>
+    <sheet name="ORIG03_Customer" sheetId="9" r:id="rId2"/>
     <sheet name="CRED01_DealSetup" sheetId="3" r:id="rId3"/>
     <sheet name="CRED02_FacilitySetup" sheetId="4" r:id="rId4"/>
     <sheet name="CRED08_FacilityFeeSetup" sheetId="5" r:id="rId5"/>
@@ -17,12 +22,11 @@
     <sheet name="SERV08C_ComprehensiveRepricing" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="524">
   <si>
     <t>rowid</t>
   </si>
@@ -153,7 +157,7 @@
     <t>Create Quick Party Onboarding for CBA UAT Deal 2 - PTY001</t>
   </si>
   <si>
-    <t>Sanseera Electronics Ltd 1511713</t>
+    <t>Sanseera Electronics Ltd 1914539</t>
   </si>
   <si>
     <t>Yes</t>
@@ -162,7 +166,7 @@
     <t>Sanseera Electronics Ltd</t>
   </si>
   <si>
-    <t>1511713</t>
+    <t>1914539</t>
   </si>
   <si>
     <t>BEPTYLTDATFDANCESWITHWOLV</t>
@@ -740,7 +744,7 @@
     <t>High Value Local RTGS (AUD)</t>
   </si>
   <si>
-    <t>RTGS-AUD2521</t>
+    <t>RTGS-AUD2525</t>
   </si>
   <si>
     <t>AUD</t>
@@ -1094,351 +1098,354 @@
     <t>UAT5</t>
   </si>
   <si>
-    <t>UAT5_08102019111016</t>
-  </si>
-  <si>
-    <t>UAT508102019111016</t>
+    <t>UAT5_27082020152822</t>
+  </si>
+  <si>
+    <t>UAT527082020152823</t>
+  </si>
+  <si>
+    <t>FACILITY-A_27082020153340QNT</t>
+  </si>
+  <si>
+    <t>19-Dec-2011</t>
+  </si>
+  <si>
+    <t>Sales Group 1</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>Hood,  Robin</t>
+  </si>
+  <si>
+    <t>%AU-OBU</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>LENDING</t>
+  </si>
+  <si>
+    <t>Lending,  Ops</t>
+  </si>
+  <si>
+    <t>GCP</t>
+  </si>
+  <si>
+    <t>General Corp Purpose</t>
+  </si>
+  <si>
+    <t>499,815,787.36</t>
+  </si>
+  <si>
+    <t>IT_COL</t>
+  </si>
+  <si>
+    <t>Sydney, Australia</t>
+  </si>
+  <si>
+    <t>BBSW - Mid</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Base Rate and Spread Only By Formula</t>
+  </si>
+  <si>
+    <t>(Base + Spread + RAC) * PCT</t>
+  </si>
+  <si>
+    <t>Modified Following Business Day</t>
+  </si>
+  <si>
+    <t>Start of next cycle</t>
+  </si>
+  <si>
+    <t>Start of next interest cycle</t>
+  </si>
+  <si>
+    <t>COMMONWEALTH BANK AU-OBU</t>
+  </si>
+  <si>
+    <t>RE_RES</t>
+  </si>
+  <si>
+    <t>Origination</t>
+  </si>
+  <si>
+    <t>124,605,140.61</t>
+  </si>
+  <si>
+    <t>Hold for Investment - Australia</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank of Australia - OBU</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>FACILITY-B_08102019114949AGS</t>
+  </si>
+  <si>
+    <t>13,691,190.48</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>FACILITY-C_08102019115619IXL</t>
+  </si>
+  <si>
+    <t>22,912,744.60</t>
+  </si>
+  <si>
+    <t>Facility_NamePrefix</t>
+  </si>
+  <si>
+    <t>Facility_Type</t>
+  </si>
+  <si>
+    <t>Facility_ProposedCmtAmt</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeDecreaseAmount</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeRemainingAmount</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeDecreaseAmtSched</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeRemainingAmtSched</t>
+  </si>
+  <si>
+    <t>Facility_Currency</t>
+  </si>
+  <si>
+    <t>Facility_AgreementDate</t>
+  </si>
+  <si>
+    <t>Facility_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Facility_ExpiryDate</t>
+  </si>
+  <si>
+    <t>Facility_MaturityDate</t>
+  </si>
+  <si>
+    <t>Facility_ServicingGroup</t>
+  </si>
+  <si>
+    <t>Facility_Customer</t>
+  </si>
+  <si>
+    <t>Facility_RiskType</t>
+  </si>
+  <si>
+    <t>Facility_LoanPurposeType</t>
+  </si>
+  <si>
+    <t>Facility_GlobalLimit</t>
+  </si>
+  <si>
+    <t>Facility_SGLocation</t>
+  </si>
+  <si>
+    <t>Facility_Borrower</t>
+  </si>
+  <si>
+    <t>Borrower_Currency</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerMaturity</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerSGName</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerPercent</t>
+  </si>
+  <si>
+    <t>CurrencyLimit</t>
+  </si>
+  <si>
+    <t>Facility_SIC</t>
+  </si>
+  <si>
+    <t>Facility_OwningBranch</t>
+  </si>
+  <si>
+    <t>Facility_FundingDesk</t>
+  </si>
+  <si>
+    <t>Facility_ProcessingArea</t>
+  </si>
+  <si>
+    <t>CBA_UAT_05</t>
+  </si>
+  <si>
+    <t>FACILITY-A_</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>3,435,325.23</t>
+  </si>
+  <si>
+    <t>121,169,815.38</t>
+  </si>
+  <si>
+    <t>28-Nov-2018</t>
+  </si>
+  <si>
+    <t>31-Dec-2021</t>
+  </si>
+  <si>
+    <t>16-Dec-2011</t>
+  </si>
+  <si>
+    <t>Refinance of Existing CBA/BW Loan</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>100.000000%</t>
+  </si>
+  <si>
+    <t>8432 - AU / Technical And Further Education</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank of Australia - DBU</t>
+  </si>
+  <si>
+    <t>Australian (Sydney)</t>
+  </si>
+  <si>
+    <t>Agency Australia</t>
+  </si>
+  <si>
+    <t>FACILITY-B_</t>
+  </si>
+  <si>
+    <t>FACILITY-C_</t>
+  </si>
+  <si>
+    <t>Interest_AddItem</t>
+  </si>
+  <si>
+    <t>Interest_OptionName</t>
+  </si>
+  <si>
+    <t>Interest_RateBasis</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode_Formula</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode_SpreadVar</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode</t>
+  </si>
+  <si>
+    <t>Penalty_Spread</t>
+  </si>
+  <si>
+    <t>Penalty_Status</t>
+  </si>
+  <si>
+    <t>MIS_Code</t>
+  </si>
+  <si>
+    <t>MIS_Value</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Actual/365</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>( BBSW  + Spread (Spread_Var%) ) X PCT (1)</t>
+  </si>
+  <si>
+    <t>Spread_Var</t>
+  </si>
+  <si>
+    <t>( BBSW  + Spread (1.7%) ) X PCT (1)</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>RPLIM</t>
+  </si>
+  <si>
+    <t>RPL_Y</t>
+  </si>
+  <si>
+    <t>Facility_RowID</t>
+  </si>
+  <si>
+    <t>Loan_Alias</t>
+  </si>
+  <si>
+    <t>Borrower_Name</t>
+  </si>
+  <si>
+    <t>Pricing_Option</t>
+  </si>
+  <si>
+    <t>Outstanding_Type</t>
+  </si>
+  <si>
+    <t>Outstanding_Currency</t>
+  </si>
+  <si>
+    <t>Loan_RequestedAmount</t>
+  </si>
+  <si>
+    <t>Loan_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Loan_MaturityDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingFrequency</t>
+  </si>
+  <si>
+    <t>Loan_BorrowerBaseRate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingSingleCashflow</t>
+  </si>
+  <si>
+    <t>Remittance_Description</t>
   </si>
   <si>
     <t>FACILITY-A_08102019114315QEE</t>
   </si>
   <si>
-    <t>19-Dec-2011</t>
-  </si>
-  <si>
-    <t>Sales Group 1</t>
-  </si>
-  <si>
-    <t>1011956</t>
-  </si>
-  <si>
-    <t>RH</t>
-  </si>
-  <si>
-    <t>HOOD</t>
-  </si>
-  <si>
-    <t>Hood,  Robin</t>
-  </si>
-  <si>
-    <t>%DBU</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>LENDING</t>
-  </si>
-  <si>
-    <t>Lending,  Ops</t>
-  </si>
-  <si>
-    <t>GCP</t>
-  </si>
-  <si>
-    <t>General Corp Purpose</t>
-  </si>
-  <si>
-    <t>499,815,787.36</t>
-  </si>
-  <si>
-    <t>IT_COL</t>
-  </si>
-  <si>
-    <t>Sydney, Australia</t>
-  </si>
-  <si>
-    <t>BBSW - Mid</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Base Rate and Spread Only By Formula</t>
-  </si>
-  <si>
-    <t>(Base + Spread + RAC) * PCT</t>
-  </si>
-  <si>
-    <t>Modified Following Business Day</t>
-  </si>
-  <si>
-    <t>Start of next cycle</t>
-  </si>
-  <si>
-    <t>Start of next interest cycle</t>
-  </si>
-  <si>
-    <t>COMMONWEALTH BANK AU-DBU</t>
-  </si>
-  <si>
-    <t>RE_RES</t>
-  </si>
-  <si>
-    <t>Origination</t>
-  </si>
-  <si>
-    <t>124,605,140.61</t>
-  </si>
-  <si>
-    <t>Hold for Investment - Australia</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank of Australia - DBU</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>FACILITY-B_08102019114949AGS</t>
-  </si>
-  <si>
-    <t>13,691,190.48</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>FACILITY-C_08102019115619IXL</t>
-  </si>
-  <si>
-    <t>22,912,744.60</t>
-  </si>
-  <si>
-    <t>Facility_NamePrefix</t>
-  </si>
-  <si>
-    <t>Facility_Type</t>
-  </si>
-  <si>
-    <t>Facility_ProposedCmtAmt</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeDecreaseAmount</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeRemainingAmount</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeDecreaseAmtSched</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeRemainingAmtSched</t>
-  </si>
-  <si>
-    <t>Facility_Currency</t>
-  </si>
-  <si>
-    <t>Facility_AgreementDate</t>
-  </si>
-  <si>
-    <t>Facility_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Facility_ExpiryDate</t>
-  </si>
-  <si>
-    <t>Facility_MaturityDate</t>
-  </si>
-  <si>
-    <t>Facility_ServicingGroup</t>
-  </si>
-  <si>
-    <t>Facility_Customer</t>
-  </si>
-  <si>
-    <t>Facility_RiskType</t>
-  </si>
-  <si>
-    <t>Facility_LoanPurposeType</t>
-  </si>
-  <si>
-    <t>Facility_GlobalLimit</t>
-  </si>
-  <si>
-    <t>Facility_SGLocation</t>
-  </si>
-  <si>
-    <t>Facility_Borrower</t>
-  </si>
-  <si>
-    <t>Borrower_Currency</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerMaturity</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerSGName</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerPercent</t>
-  </si>
-  <si>
-    <t>CurrencyLimit</t>
-  </si>
-  <si>
-    <t>Facility_SIC</t>
-  </si>
-  <si>
-    <t>Facility_OwningBranch</t>
-  </si>
-  <si>
-    <t>Facility_FundingDesk</t>
-  </si>
-  <si>
-    <t>Facility_ProcessingArea</t>
-  </si>
-  <si>
-    <t>CBA_UAT_05</t>
-  </si>
-  <si>
-    <t>FACILITY-A_</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>3,435,325.23</t>
-  </si>
-  <si>
-    <t>121,169,815.38</t>
-  </si>
-  <si>
-    <t>28-Nov-2018</t>
-  </si>
-  <si>
-    <t>31-Dec-2021</t>
-  </si>
-  <si>
-    <t>16-Dec-2011</t>
-  </si>
-  <si>
-    <t>Refinance of Existing CBA/BW Loan</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>100.000000%</t>
-  </si>
-  <si>
-    <t>8432 - AU / Technical And Further Education</t>
-  </si>
-  <si>
-    <t>Australian (Sydney)</t>
-  </si>
-  <si>
-    <t>Agency Australia</t>
-  </si>
-  <si>
-    <t>FACILITY-B_</t>
-  </si>
-  <si>
-    <t>FACILITY-C_</t>
-  </si>
-  <si>
-    <t>Interest_AddItem</t>
-  </si>
-  <si>
-    <t>Interest_OptionName</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode_Formula</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode_SpreadVar</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode</t>
-  </si>
-  <si>
-    <t>Penalty_Spread</t>
-  </si>
-  <si>
-    <t>Penalty_Status</t>
-  </si>
-  <si>
-    <t>MIS_Code</t>
-  </si>
-  <si>
-    <t>MIS_Value</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>Actual/365</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>( BBSW  + Spread (Spread_Var%) ) X PCT (1)</t>
-  </si>
-  <si>
-    <t>Spread_Var</t>
-  </si>
-  <si>
-    <t>( BBSW  + Spread (1.7%) ) X PCT (1)</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>RPLIM</t>
-  </si>
-  <si>
-    <t>RPL_Y</t>
-  </si>
-  <si>
-    <t>Facility_RowID</t>
-  </si>
-  <si>
-    <t>Loan_Alias</t>
-  </si>
-  <si>
-    <t>Borrower_Name</t>
-  </si>
-  <si>
-    <t>Pricing_Option</t>
-  </si>
-  <si>
-    <t>Outstanding_Type</t>
-  </si>
-  <si>
-    <t>Outstanding_Currency</t>
-  </si>
-  <si>
-    <t>Loan_RequestedAmount</t>
-  </si>
-  <si>
-    <t>Loan_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Loan_MaturityDate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingDate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingFrequency</t>
-  </si>
-  <si>
-    <t>Loan_BorrowerBaseRate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingSingleCashflow</t>
-  </si>
-  <si>
-    <t>Remittance_Description</t>
-  </si>
-  <si>
     <t>60000017</t>
   </si>
   <si>
@@ -1550,7 +1557,7 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>SANSEERA ELECTRONICS LTD1011954</t>
+    <t>SANSEERA ELECTRONICS LTD 1914539</t>
   </si>
   <si>
     <t>Awaiting release</t>
@@ -1586,16 +1593,16 @@
     <t>167,154.30</t>
   </si>
   <si>
-    <t>Sanseera Electronics Ltd 1914539</t>
-  </si>
-  <si>
-    <t>1914539</t>
-  </si>
-  <si>
-    <t>RTGSAUD1-5803</t>
-  </si>
-  <si>
-    <t>RTGS-AUD2525</t>
+    <t>Sanseera Electronics Ltd 1511713</t>
+  </si>
+  <si>
+    <t>1511713</t>
+  </si>
+  <si>
+    <t>RTGSAUD1-5808</t>
+  </si>
+  <si>
+    <t>RTGS-AUD2521</t>
   </si>
 </sst>
 </file>
@@ -2131,7 +2138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01205ECA-47EE-40D4-AA57-EDE111A2F9F8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2410,7 +2417,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>520</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>44</v>
@@ -2419,7 +2426,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>521</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>47</v>
@@ -2533,14 +2540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA19861-75E9-40AE-A2FA-D27C0680C951}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3090,13 +3097,13 @@
         <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>519</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>520</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>209</v>
@@ -3126,7 +3133,7 @@
         <v>217</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>520</v>
+        <v>46</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>218</v>
@@ -3201,10 +3208,10 @@
         <v>237</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>239</v>
@@ -3499,7 +3506,9 @@
   </sheetPr>
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3757,49 +3766,49 @@
         <v>359</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>298</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>298</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="23" t="s">
         <v>369</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>370</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>211</v>
@@ -3808,52 +3817,52 @@
         <v>248</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM2" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="AT2" s="1">
         <v>100</v>
@@ -3862,19 +3871,19 @@
         <v>100</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>298</v>
       </c>
       <c r="AX2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>358</v>
@@ -3882,24 +3891,24 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3916,7 +3925,9 @@
   </sheetPr>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3924,7 +3935,7 @@
     <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
@@ -3964,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>303</v>
@@ -3976,88 +3987,88 @@
         <v>309</v>
       </c>
       <c r="G1" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="Y1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE1" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="AD1" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>418</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -4065,10 +4076,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>420</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>421</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>355</v>
@@ -4080,82 +4091,82 @@
         <v>239</v>
       </c>
       <c r="G2" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="L2" s="16" t="s">
         <v>425</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>426</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>239</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>358</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T2" s="31" t="s">
         <v>254</v>
       </c>
       <c r="U2" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="V2" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>429</v>
       </c>
       <c r="W2" s="16" t="s">
         <v>215</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>239</v>
       </c>
       <c r="Z2" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB2" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="AC2" s="16" t="s">
         <v>239</v>
       </c>
       <c r="AD2" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AE2" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF2" s="16" t="s">
         <v>431</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="AG2" s="16" t="s">
         <v>432</v>
@@ -4166,10 +4177,10 @@
     </row>
     <row r="3" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>434</v>
@@ -4178,16 +4189,16 @@
         <v>355</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>239</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
@@ -4196,61 +4207,61 @@
         <v>239</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>358</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T3" s="31" t="s">
         <v>254</v>
       </c>
       <c r="U3" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="V3" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>429</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>215</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="Y3" s="16" t="s">
         <v>239</v>
       </c>
       <c r="Z3" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB3" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB3" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="AC3" s="16" t="s">
         <v>239</v>
       </c>
       <c r="AD3" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AE3" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF3" s="16" t="s">
         <v>431</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="AG3" s="16" t="s">
         <v>432</v>
@@ -4261,10 +4272,10 @@
     </row>
     <row r="4" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>435</v>
@@ -4273,16 +4284,16 @@
         <v>355</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>239</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
@@ -4291,61 +4302,61 @@
         <v>239</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>358</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S4" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T4" s="31" t="s">
         <v>254</v>
       </c>
       <c r="U4" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="V4" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>429</v>
       </c>
       <c r="W4" s="16" t="s">
         <v>215</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="16" t="s">
         <v>239</v>
       </c>
       <c r="Z4" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB4" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB4" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="AC4" s="16" t="s">
         <v>239</v>
       </c>
       <c r="AD4" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AE4" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF4" s="16" t="s">
         <v>431</v>
-      </c>
-      <c r="AF4" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="AG4" s="16" t="s">
         <v>432</v>
@@ -4368,7 +4379,9 @@
   </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4436,7 +4449,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>357</v>
@@ -4445,7 +4458,7 @@
         <v>447</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>448</v>
@@ -4463,7 +4476,7 @@
         <v>452</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>453</v>
@@ -4477,19 +4490,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>447</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>448</v>
@@ -4507,7 +4520,7 @@
         <v>452</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>453</v>
@@ -4521,19 +4534,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>447</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>448</v>
@@ -4551,7 +4564,7 @@
         <v>452</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>453</v>
@@ -4575,10 +4588,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4589,22 +4602,22 @@
     <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24" style="1" customWidth="1"/>
-    <col min="17" max="17" width="30.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4627,43 +4640,46 @@
         <v>458</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -4677,84 +4693,87 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>373</v>
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>215</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>426</v>
+      <c r="M2" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="O2" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>474</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>476</v>
       </c>
       <c r="R2" t="s">
+        <v>477</v>
+      </c>
+      <c r="S2" t="s">
         <v>238</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>298</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>352</v>
@@ -4766,37 +4785,37 @@
         <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>373</v>
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>215</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K3" s="36" t="s">
-        <v>479</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>426</v>
+      <c r="M3" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>474</v>
+        <v>425</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>482</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>475</v>
@@ -4804,46 +4823,49 @@
       <c r="Q3" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S3" t="s">
         <v>238</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>298</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>352</v>
@@ -4852,87 +4874,90 @@
         <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>426</v>
+      <c r="M4" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>474</v>
+        <v>425</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>485</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="R4" t="s">
+        <v>486</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S4" t="s">
         <v>238</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>298</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="U4" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AC4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>352</v>
@@ -4941,39 +4966,39 @@
         <v>355</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>373</v>
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>215</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>426</v>
+      <c r="L5" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="O5" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>474</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -4982,40 +5007,43 @@
       <c r="Q5" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S5" t="s">
         <v>238</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>298</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="U5" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AC5" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5075,31 +5103,31 @@
         <v>305</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>457</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N1" s="37" t="s">
         <v>459</v>
@@ -5108,25 +5136,25 @@
         <v>311</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="T1" s="32" t="s">
         <v>439</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -5134,44 +5162,44 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>254</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L2" s="36"/>
       <c r="M2" s="38" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="P2" s="41" t="s">
         <v>298</v>
@@ -5183,16 +5211,16 @@
         <v>239</v>
       </c>
       <c r="S2" s="44" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="T2" s="44" t="s">
         <v>449</v>
       </c>
       <c r="U2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="V2" s="45" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -5229,49 +5257,49 @@
     </row>
     <row r="3" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>254</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="P3" s="41" t="s">
         <v>298</v>
@@ -5283,16 +5311,16 @@
         <v>239</v>
       </c>
       <c r="S3" s="44" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T3" s="44" t="s">
         <v>449</v>
       </c>
       <c r="U3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="V3" s="45" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -5329,49 +5357,49 @@
     </row>
     <row r="4" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>254</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="P4" s="41" t="s">
         <v>298</v>
@@ -5383,16 +5411,16 @@
         <v>239</v>
       </c>
       <c r="S4" s="44" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T4" s="44" t="s">
         <v>449</v>
       </c>
       <c r="U4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="V4" s="45" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -5429,47 +5457,47 @@
     </row>
     <row r="5" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>355</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>254</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L5" s="36"/>
       <c r="M5" s="38" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="P5" s="41" t="s">
         <v>298</v>
@@ -5481,16 +5509,16 @@
         <v>239</v>
       </c>
       <c r="S5" s="44" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T5" s="44" t="s">
         <v>449</v>
       </c>
       <c r="U5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="V5" s="45" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\evergreen_projects\CBA_Evergreen\DataSet\CBA_UAT_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmamaril\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C03543-D7E7-49C8-BA59-68A019AABA40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC157383-5C44-41E5-AFE1-929CED868152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="3495" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
-    <sheet name="ORIG03_Customer" sheetId="2" r:id="rId2"/>
+    <sheet name="PTY001_QuickPartyOnboarding" sheetId="8" r:id="rId1"/>
+    <sheet name="ORIG03_Customer" sheetId="9" r:id="rId2"/>
     <sheet name="CRED01_DealSetup" sheetId="3" r:id="rId3"/>
     <sheet name="CRED02_FacilitySetup" sheetId="4" r:id="rId4"/>
     <sheet name="CRED08_FacilityFeeSetup" sheetId="5" r:id="rId5"/>
     <sheet name="SERV01_LoanDrawdown" sheetId="6" r:id="rId6"/>
     <sheet name="SERV08C_ComprehensiveRepricing" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="524">
   <si>
     <t>rowid</t>
   </si>
@@ -165,7 +157,7 @@
     <t>Create Quick Party Onboarding for CBA UAT Deal 2 - PTY001</t>
   </si>
   <si>
-    <t>Sanseera Electronics Ltd1011954</t>
+    <t>Sanseera Electronics Ltd 1914539</t>
   </si>
   <si>
     <t>Yes</t>
@@ -174,7 +166,7 @@
     <t>Sanseera Electronics Ltd</t>
   </si>
   <si>
-    <t>1011956</t>
+    <t>1914539</t>
   </si>
   <si>
     <t>BEPTYLTDATFDANCESWITHWOLV</t>
@@ -752,9 +744,6 @@
     <t>High Value Local RTGS (AUD)</t>
   </si>
   <si>
-    <t>RTGSAUD1-5803</t>
-  </si>
-  <si>
     <t>RTGS-AUD2525</t>
   </si>
   <si>
@@ -1109,348 +1098,354 @@
     <t>UAT5</t>
   </si>
   <si>
-    <t>UAT5_08102019111016</t>
-  </si>
-  <si>
-    <t>UAT508102019111016</t>
+    <t>UAT5_27082020152822</t>
+  </si>
+  <si>
+    <t>UAT527082020152823</t>
+  </si>
+  <si>
+    <t>FACILITY-A_27082020153340QNT</t>
+  </si>
+  <si>
+    <t>19-Dec-2011</t>
+  </si>
+  <si>
+    <t>Sales Group 1</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>Hood,  Robin</t>
+  </si>
+  <si>
+    <t>%AU-OBU</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>LENDING</t>
+  </si>
+  <si>
+    <t>Lending,  Ops</t>
+  </si>
+  <si>
+    <t>GCP</t>
+  </si>
+  <si>
+    <t>General Corp Purpose</t>
+  </si>
+  <si>
+    <t>499,815,787.36</t>
+  </si>
+  <si>
+    <t>IT_COL</t>
+  </si>
+  <si>
+    <t>Sydney, Australia</t>
+  </si>
+  <si>
+    <t>BBSW - Mid</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Base Rate and Spread Only By Formula</t>
+  </si>
+  <si>
+    <t>(Base + Spread + RAC) * PCT</t>
+  </si>
+  <si>
+    <t>Modified Following Business Day</t>
+  </si>
+  <si>
+    <t>Start of next cycle</t>
+  </si>
+  <si>
+    <t>Start of next interest cycle</t>
+  </si>
+  <si>
+    <t>COMMONWEALTH BANK AU-OBU</t>
+  </si>
+  <si>
+    <t>RE_RES</t>
+  </si>
+  <si>
+    <t>Origination</t>
+  </si>
+  <si>
+    <t>124,605,140.61</t>
+  </si>
+  <si>
+    <t>Hold for Investment - Australia</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank of Australia - OBU</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>FACILITY-B_08102019114949AGS</t>
+  </si>
+  <si>
+    <t>13,691,190.48</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>FACILITY-C_08102019115619IXL</t>
+  </si>
+  <si>
+    <t>22,912,744.60</t>
+  </si>
+  <si>
+    <t>Facility_NamePrefix</t>
+  </si>
+  <si>
+    <t>Facility_Type</t>
+  </si>
+  <si>
+    <t>Facility_ProposedCmtAmt</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeDecreaseAmount</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeRemainingAmount</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeDecreaseAmtSched</t>
+  </si>
+  <si>
+    <t>Facility_LimitChangeRemainingAmtSched</t>
+  </si>
+  <si>
+    <t>Facility_Currency</t>
+  </si>
+  <si>
+    <t>Facility_AgreementDate</t>
+  </si>
+  <si>
+    <t>Facility_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Facility_ExpiryDate</t>
+  </si>
+  <si>
+    <t>Facility_MaturityDate</t>
+  </si>
+  <si>
+    <t>Facility_ServicingGroup</t>
+  </si>
+  <si>
+    <t>Facility_Customer</t>
+  </si>
+  <si>
+    <t>Facility_RiskType</t>
+  </si>
+  <si>
+    <t>Facility_LoanPurposeType</t>
+  </si>
+  <si>
+    <t>Facility_GlobalLimit</t>
+  </si>
+  <si>
+    <t>Facility_SGLocation</t>
+  </si>
+  <si>
+    <t>Facility_Borrower</t>
+  </si>
+  <si>
+    <t>Borrower_Currency</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerMaturity</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerSGName</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerPercent</t>
+  </si>
+  <si>
+    <t>CurrencyLimit</t>
+  </si>
+  <si>
+    <t>Facility_SIC</t>
+  </si>
+  <si>
+    <t>Facility_OwningBranch</t>
+  </si>
+  <si>
+    <t>Facility_FundingDesk</t>
+  </si>
+  <si>
+    <t>Facility_ProcessingArea</t>
+  </si>
+  <si>
+    <t>CBA_UAT_05</t>
+  </si>
+  <si>
+    <t>FACILITY-A_</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>3,435,325.23</t>
+  </si>
+  <si>
+    <t>121,169,815.38</t>
+  </si>
+  <si>
+    <t>28-Nov-2018</t>
+  </si>
+  <si>
+    <t>31-Dec-2021</t>
+  </si>
+  <si>
+    <t>16-Dec-2011</t>
+  </si>
+  <si>
+    <t>Refinance of Existing CBA/BW Loan</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>100.000000%</t>
+  </si>
+  <si>
+    <t>8432 - AU / Technical And Further Education</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank of Australia - DBU</t>
+  </si>
+  <si>
+    <t>Australian (Sydney)</t>
+  </si>
+  <si>
+    <t>Agency Australia</t>
+  </si>
+  <si>
+    <t>FACILITY-B_</t>
+  </si>
+  <si>
+    <t>FACILITY-C_</t>
+  </si>
+  <si>
+    <t>Interest_AddItem</t>
+  </si>
+  <si>
+    <t>Interest_OptionName</t>
+  </si>
+  <si>
+    <t>Interest_RateBasis</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode_Formula</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode_SpreadVar</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode</t>
+  </si>
+  <si>
+    <t>Penalty_Spread</t>
+  </si>
+  <si>
+    <t>Penalty_Status</t>
+  </si>
+  <si>
+    <t>MIS_Code</t>
+  </si>
+  <si>
+    <t>MIS_Value</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Actual/365</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>( BBSW  + Spread (Spread_Var%) ) X PCT (1)</t>
+  </si>
+  <si>
+    <t>Spread_Var</t>
+  </si>
+  <si>
+    <t>( BBSW  + Spread (1.7%) ) X PCT (1)</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>RPLIM</t>
+  </si>
+  <si>
+    <t>RPL_Y</t>
+  </si>
+  <si>
+    <t>Facility_RowID</t>
+  </si>
+  <si>
+    <t>Loan_Alias</t>
+  </si>
+  <si>
+    <t>Borrower_Name</t>
+  </si>
+  <si>
+    <t>Pricing_Option</t>
+  </si>
+  <si>
+    <t>Outstanding_Type</t>
+  </si>
+  <si>
+    <t>Outstanding_Currency</t>
+  </si>
+  <si>
+    <t>Loan_RequestedAmount</t>
+  </si>
+  <si>
+    <t>Loan_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Loan_MaturityDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingFrequency</t>
+  </si>
+  <si>
+    <t>Loan_BorrowerBaseRate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingSingleCashflow</t>
+  </si>
+  <si>
+    <t>Remittance_Description</t>
   </si>
   <si>
     <t>FACILITY-A_08102019114315QEE</t>
   </si>
   <si>
-    <t>19-Dec-2011</t>
-  </si>
-  <si>
-    <t>Sales Group 1</t>
-  </si>
-  <si>
-    <t>RH</t>
-  </si>
-  <si>
-    <t>HOOD</t>
-  </si>
-  <si>
-    <t>Hood,  Robin</t>
-  </si>
-  <si>
-    <t>%DBU</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>LENDING</t>
-  </si>
-  <si>
-    <t>Lending,  Ops</t>
-  </si>
-  <si>
-    <t>GCP</t>
-  </si>
-  <si>
-    <t>General Corp Purpose</t>
-  </si>
-  <si>
-    <t>499,815,787.36</t>
-  </si>
-  <si>
-    <t>IT_COL</t>
-  </si>
-  <si>
-    <t>Sydney, Australia</t>
-  </si>
-  <si>
-    <t>BBSW - Mid</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Base Rate and Spread Only By Formula</t>
-  </si>
-  <si>
-    <t>(Base + Spread + RAC) * PCT</t>
-  </si>
-  <si>
-    <t>Modified Following Business Day</t>
-  </si>
-  <si>
-    <t>Start of next cycle</t>
-  </si>
-  <si>
-    <t>Start of next interest cycle</t>
-  </si>
-  <si>
-    <t>COMMONWEALTH BANK AU-DBU</t>
-  </si>
-  <si>
-    <t>RE_RES</t>
-  </si>
-  <si>
-    <t>Origination</t>
-  </si>
-  <si>
-    <t>124,605,140.61</t>
-  </si>
-  <si>
-    <t>Hold for Investment - Australia</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank of Australia - DBU</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>FACILITY-B_08102019114949AGS</t>
-  </si>
-  <si>
-    <t>13,691,190.48</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>FACILITY-C_08102019115619IXL</t>
-  </si>
-  <si>
-    <t>22,912,744.60</t>
-  </si>
-  <si>
-    <t>Facility_NamePrefix</t>
-  </si>
-  <si>
-    <t>Facility_Type</t>
-  </si>
-  <si>
-    <t>Facility_ProposedCmtAmt</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeDecreaseAmount</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeRemainingAmount</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeDecreaseAmtSched</t>
-  </si>
-  <si>
-    <t>Facility_LimitChangeRemainingAmtSched</t>
-  </si>
-  <si>
-    <t>Facility_Currency</t>
-  </si>
-  <si>
-    <t>Facility_AgreementDate</t>
-  </si>
-  <si>
-    <t>Facility_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Facility_ExpiryDate</t>
-  </si>
-  <si>
-    <t>Facility_MaturityDate</t>
-  </si>
-  <si>
-    <t>Facility_ServicingGroup</t>
-  </si>
-  <si>
-    <t>Facility_Customer</t>
-  </si>
-  <si>
-    <t>Facility_RiskType</t>
-  </si>
-  <si>
-    <t>Facility_LoanPurposeType</t>
-  </si>
-  <si>
-    <t>Facility_GlobalLimit</t>
-  </si>
-  <si>
-    <t>Facility_SGLocation</t>
-  </si>
-  <si>
-    <t>Facility_Borrower</t>
-  </si>
-  <si>
-    <t>Borrower_Currency</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerMaturity</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerSGName</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerPercent</t>
-  </si>
-  <si>
-    <t>CurrencyLimit</t>
-  </si>
-  <si>
-    <t>Facility_SIC</t>
-  </si>
-  <si>
-    <t>Facility_OwningBranch</t>
-  </si>
-  <si>
-    <t>Facility_FundingDesk</t>
-  </si>
-  <si>
-    <t>Facility_ProcessingArea</t>
-  </si>
-  <si>
-    <t>CBA_UAT_05</t>
-  </si>
-  <si>
-    <t>FACILITY-A_</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>3,435,325.23</t>
-  </si>
-  <si>
-    <t>121,169,815.38</t>
-  </si>
-  <si>
-    <t>28-Nov-2018</t>
-  </si>
-  <si>
-    <t>31-Dec-2021</t>
-  </si>
-  <si>
-    <t>16-Dec-2011</t>
-  </si>
-  <si>
-    <t>Refinance of Existing CBA/BW Loan</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>100.000000%</t>
-  </si>
-  <si>
-    <t>8432 - AU / Technical And Further Education</t>
-  </si>
-  <si>
-    <t>Australian (Sydney)</t>
-  </si>
-  <si>
-    <t>Agency Australia</t>
-  </si>
-  <si>
-    <t>FACILITY-B_</t>
-  </si>
-  <si>
-    <t>FACILITY-C_</t>
-  </si>
-  <si>
-    <t>Interest_AddItem</t>
-  </si>
-  <si>
-    <t>Interest_OptionName</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode_Formula</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode_SpreadVar</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode</t>
-  </si>
-  <si>
-    <t>Penalty_Spread</t>
-  </si>
-  <si>
-    <t>Penalty_Status</t>
-  </si>
-  <si>
-    <t>MIS_Code</t>
-  </si>
-  <si>
-    <t>MIS_Value</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>Actual/365</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>( BBSW  + Spread (Spread_Var%) ) X PCT (1)</t>
-  </si>
-  <si>
-    <t>Spread_Var</t>
-  </si>
-  <si>
-    <t>( BBSW  + Spread (1.7%) ) X PCT (1)</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>RPLIM</t>
-  </si>
-  <si>
-    <t>RPL_Y</t>
-  </si>
-  <si>
-    <t>Facility_RowID</t>
-  </si>
-  <si>
-    <t>Loan_Alias</t>
-  </si>
-  <si>
-    <t>Borrower_Name</t>
-  </si>
-  <si>
-    <t>Pricing_Option</t>
-  </si>
-  <si>
-    <t>Outstanding_Type</t>
-  </si>
-  <si>
-    <t>Outstanding_Currency</t>
-  </si>
-  <si>
-    <t>Loan_RequestedAmount</t>
-  </si>
-  <si>
-    <t>Loan_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Loan_MaturityDate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingDate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingFrequency</t>
-  </si>
-  <si>
-    <t>Loan_BorrowerBaseRate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingSingleCashflow</t>
-  </si>
-  <si>
-    <t>Remittance_Description</t>
-  </si>
-  <si>
     <t>60000017</t>
   </si>
   <si>
@@ -1469,6 +1464,9 @@
     <t>1.93</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Melbourne, VIC,Australia</t>
   </si>
   <si>
@@ -1484,9 +1482,6 @@
     <t>21-Jan-2019</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>60000031</t>
   </si>
   <si>
@@ -1502,6 +1497,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>60000032</t>
+  </si>
+  <si>
     <t>18,469,808.54</t>
   </si>
   <si>
@@ -1559,6 +1557,9 @@
     <t>2.1</t>
   </si>
   <si>
+    <t>SANSEERA ELECTRONICS LTD 1914539</t>
+  </si>
+  <si>
     <t>Awaiting release</t>
   </si>
   <si>
@@ -1592,16 +1593,22 @@
     <t>167,154.30</t>
   </si>
   <si>
-    <t>60000032</t>
-  </si>
-  <si>
-    <t>SANSEERA ELECTRONICS LTD1011954</t>
+    <t>Sanseera Electronics Ltd 1511713</t>
+  </si>
+  <si>
+    <t>1511713</t>
+  </si>
+  <si>
+    <t>RTGSAUD1-5808</t>
+  </si>
+  <si>
+    <t>RTGS-AUD2521</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
@@ -1753,72 +1760,71 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2132,7 +2138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01205ECA-47EE-40D4-AA57-EDE111A2F9F8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2411,7 +2417,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>520</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>44</v>
@@ -2420,7 +2426,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>521</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>47</v>
@@ -2530,22 +2536,18 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA19861-75E9-40AE-A2FA-D27C0680C951}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3087,7 +3089,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:135" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3100,8 +3102,8 @@
       <c r="D2" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="1">
-        <v>1011956</v>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>209</v>
@@ -3206,28 +3208,28 @@
         <v>237</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>238</v>
+        <v>522</v>
       </c>
       <c r="AO2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="AV2" s="8" t="s">
         <v>54</v>
@@ -3236,216 +3238,216 @@
         <v>54</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AY2" s="8" t="s">
         <v>66</v>
       </c>
       <c r="AZ2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA2" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="BA2" s="8" t="s">
+      <c r="BB2" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BC2" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="BC2" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="BD2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="BE2" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF2" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="BF2" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="BG2" s="8" t="s">
         <v>215</v>
       </c>
       <c r="BH2" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BI2" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="BJ2" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="BK2" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BL2" s="8" t="s">
         <v>220</v>
       </c>
       <c r="BM2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN2" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BO2" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BP2" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BQ2" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BR2" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="BR2" s="16" t="s">
+      <c r="BS2" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="BT2" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="BS2" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="BT2" s="16" t="s">
+      <c r="BU2" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BV2" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BW2" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BX2" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="BX2" s="8" t="s">
+      <c r="BY2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="CB2" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="CA2" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="CB2" s="16" t="s">
+      <c r="CC2" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="CC2" s="16" t="s">
+      <c r="CD2" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="CD2" s="16" t="s">
+      <c r="CE2" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="CF2" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="CG2" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="CE2" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="CF2" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="CG2" s="8" t="s">
+      <c r="CH2" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="CH2" s="8" t="s">
+      <c r="CI2" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="CI2" s="8" t="s">
+      <c r="CJ2" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="CK2" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="CL2" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="CJ2" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="CK2" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="CL2" s="8" t="s">
+      <c r="CM2" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="CM2" s="17" t="s">
+      <c r="CN2" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="CN2" s="17" t="s">
+      <c r="CO2" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="CO2" s="17" t="s">
+      <c r="CP2" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="CP2" s="17" t="s">
+      <c r="CQ2" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="CQ2" s="17" t="s">
+      <c r="CR2" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="CR2" s="17" t="s">
+      <c r="CS2" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="CS2" s="17" t="s">
+      <c r="CT2" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="CT2" s="17" t="s">
+      <c r="CU2" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="CU2" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="CV2" s="8" t="s">
         <v>227</v>
       </c>
       <c r="CW2" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="CX2" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="CX2" s="17" t="s">
+      <c r="CY2" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="CY2" s="18" t="s">
+      <c r="CZ2" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="CZ2" s="8" t="s">
+      <c r="DA2" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="DA2" s="19" t="s">
+      <c r="DB2" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="DC2" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="DD2" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="DB2" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="DC2" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="DD2" s="19" t="s">
-        <v>289</v>
       </c>
       <c r="DE2" s="16"/>
       <c r="DF2" s="16"/>
       <c r="DG2" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="DH2" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="DI2" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="DH2" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="DI2" s="16" t="s">
+      <c r="DJ2" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="DJ2" s="16" t="s">
+      <c r="DK2" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="DK2" s="19" t="s">
+      <c r="DL2" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="DL2" s="16" t="s">
+      <c r="DM2" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="DN2" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="DM2" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="DN2" s="16" t="s">
+      <c r="DO2" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="DO2" s="16" t="s">
+      <c r="DP2" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="DP2" s="20" t="s">
-        <v>297</v>
-      </c>
       <c r="DQ2" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DR2" s="16" t="s">
         <v>226</v>
@@ -3460,7 +3462,7 @@
         <v>226</v>
       </c>
       <c r="DV2" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DW2" s="16" t="s">
         <v>225</v>
@@ -3481,34 +3483,32 @@
         <v>226</v>
       </c>
       <c r="EC2" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="ED2" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="ED2" s="21" t="s">
+      <c r="EE2" s="21" t="s">
         <v>300</v>
-      </c>
-      <c r="EE2" s="21" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3575,157 +3575,157 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="AY1" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
@@ -3733,37 +3733,37 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>46</v>
@@ -3772,97 +3772,97 @@
         <v>215</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="23" t="s">
         <v>369</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>370</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>211</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM2" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="AT2" s="1">
         <v>100</v>
@@ -3871,65 +3871,63 @@
         <v>100</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AX2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="BA2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3937,7 +3935,7 @@
     <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
@@ -3969,7 +3967,7 @@
     <col min="34" max="34" width="23.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="24" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="24" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -3977,100 +3975,100 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="Y1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE1" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="AD1" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>418</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -4078,67 +4076,67 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="K2" s="31" t="s">
+      <c r="P2" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="N2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="U2" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="U2" s="16" t="s">
+      <c r="V2" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>429</v>
       </c>
       <c r="W2" s="16" t="s">
         <v>215</v>
@@ -4147,28 +4145,28 @@
         <v>46</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z2" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB2" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AC2" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE2" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="AC2" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AF2" s="16" t="s">
         <v>431</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="AG2" s="16" t="s">
         <v>432</v>
@@ -4179,61 +4177,61 @@
     </row>
     <row r="3" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>434</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>387</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>388</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
       <c r="M3" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>429</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>215</v>
@@ -4242,28 +4240,28 @@
         <v>46</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z3" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB3" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AC3" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE3" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="AC3" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AF3" s="16" t="s">
         <v>431</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="AG3" s="16" t="s">
         <v>432</v>
@@ -4274,61 +4272,61 @@
     </row>
     <row r="4" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>435</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>390</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>391</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
       <c r="M4" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N4" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="U4" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="U4" s="16" t="s">
+      <c r="V4" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>429</v>
       </c>
       <c r="W4" s="16" t="s">
         <v>215</v>
@@ -4337,28 +4335,28 @@
         <v>46</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z4" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB4" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AC4" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE4" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="AC4" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AF4" s="16" t="s">
         <v>431</v>
-      </c>
-      <c r="AF4" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="AG4" s="16" t="s">
         <v>432</v>
@@ -4371,21 +4369,19 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4412,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>436</v>
@@ -4453,16 +4449,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>447</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>448</v>
@@ -4480,7 +4476,7 @@
         <v>452</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>453</v>
@@ -4494,19 +4490,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>447</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>448</v>
@@ -4524,7 +4520,7 @@
         <v>452</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>453</v>
@@ -4538,19 +4534,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>447</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>448</v>
@@ -4568,7 +4564,7 @@
         <v>452</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>453</v>
@@ -4584,22 +4580,18 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4610,22 +4602,22 @@
     <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24" style="1" customWidth="1"/>
-    <col min="17" max="17" width="30.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4633,13 +4625,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>456</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>457</v>
@@ -4648,395 +4640,410 @@
         <v>458</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>373</v>
+      <c r="H2" t="s">
+        <v>215</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>471</v>
+        <v>239</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>426</v>
+      <c r="M2" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="O2" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>474</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="Q2" s="46" t="s">
-        <v>481</v>
-      </c>
-      <c r="R2" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="S2" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="R2" t="s">
+        <v>477</v>
+      </c>
+      <c r="S2" t="s">
+        <v>238</v>
+      </c>
+      <c r="T2" t="s">
+        <v>298</v>
+      </c>
       <c r="U2" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>373</v>
+      <c r="H3" t="s">
+        <v>215</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>426</v>
+        <v>254</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>474</v>
+        <v>425</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>482</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>475</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="T3" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S3" t="s">
+        <v>238</v>
+      </c>
+      <c r="T3" t="s">
+        <v>298</v>
+      </c>
       <c r="U3" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>373</v>
+      <c r="H4" t="s">
+        <v>215</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S4" t="s">
+        <v>238</v>
+      </c>
+      <c r="T4" t="s">
+        <v>298</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="R4" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="S4" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>373</v>
+      <c r="H5" t="s">
+        <v>215</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>426</v>
+        <v>254</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="O5" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>474</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>475</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="R5" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="S5" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="T5" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="R5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S5" t="s">
+        <v>238</v>
+      </c>
+      <c r="T5" t="s">
+        <v>298</v>
+      </c>
       <c r="U5" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AC5" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5044,15 +5051,11 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5086,7 +5089,7 @@
     <col min="22" max="22" width="16" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="37" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -5094,64 +5097,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>457</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N1" s="37" t="s">
         <v>459</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="T1" s="32" t="s">
         <v>439</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -5159,65 +5162,65 @@
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L2" s="36"/>
       <c r="M2" s="38" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q2" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>238</v>
+      </c>
+      <c r="R2" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="R2" s="41" t="s">
-        <v>240</v>
-      </c>
       <c r="S2" s="44" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="T2" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="U2" s="46" t="s">
-        <v>518</v>
+      <c r="U2" t="s">
+        <v>508</v>
       </c>
       <c r="V2" s="45" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -5254,70 +5257,70 @@
     </row>
     <row r="3" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q3" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>238</v>
+      </c>
+      <c r="R3" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="R3" s="41" t="s">
-        <v>240</v>
-      </c>
       <c r="S3" s="44" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="T3" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="U3" s="46" t="s">
-        <v>518</v>
+      <c r="U3" t="s">
+        <v>508</v>
       </c>
       <c r="V3" s="45" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -5354,70 +5357,70 @@
     </row>
     <row r="4" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>388</v>
-      </c>
       <c r="H4" s="36" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q4" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>238</v>
+      </c>
+      <c r="R4" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="R4" s="41" t="s">
-        <v>240</v>
-      </c>
       <c r="S4" s="44" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="T4" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="U4" s="46" t="s">
-        <v>518</v>
+      <c r="U4" t="s">
+        <v>508</v>
       </c>
       <c r="V4" s="45" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -5454,68 +5457,68 @@
     </row>
     <row r="5" spans="1:54" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>391</v>
-      </c>
       <c r="H5" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L5" s="36"/>
       <c r="M5" s="38" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q5" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>238</v>
+      </c>
+      <c r="R5" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="R5" s="41" t="s">
-        <v>240</v>
-      </c>
       <c r="S5" s="44" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T5" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="U5" s="46" t="s">
-        <v>518</v>
+      <c r="U5" t="s">
+        <v>508</v>
       </c>
       <c r="V5" s="45" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -5554,9 +5557,5 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
@@ -2965,17 +2965,17 @@
       </c>
       <c r="E2" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="F2" s="45" t="inlineStr">
         <is>
-          <t>UAT504092020173922</t>
+          <t>UAT507092020114431</t>
         </is>
       </c>
       <c r="G2" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_04092020174548HWZ</t>
+          <t>FACILITY-A_07092020115134ZWO</t>
         </is>
       </c>
       <c r="H2" s="45" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="G3" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-B_04092020175200TYM</t>
+          <t>FACILITY-B_07092020115901PQX</t>
         </is>
       </c>
       <c r="AX3" s="45" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="G4" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-C_04092020175813KPX</t>
+          <t>FACILITY-C_07092020120504VXK</t>
         </is>
       </c>
       <c r="AX4" s="45" t="inlineStr">
@@ -3486,12 +3486,12 @@
       </c>
       <c r="D2" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="E2" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_04092020174548HWZ</t>
+          <t>FACILITY-A_07092020115134ZWO</t>
         </is>
       </c>
       <c r="F2" s="30" t="inlineStr">
@@ -3658,12 +3658,12 @@
       </c>
       <c r="D3" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="E3" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-B_04092020175200TYM</t>
+          <t>FACILITY-B_07092020115901PQX</t>
         </is>
       </c>
       <c r="F3" s="30" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="D4" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="E4" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-C_04092020175813KPX</t>
+          <t>FACILITY-C_07092020120504VXK</t>
         </is>
       </c>
       <c r="F4" s="30" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="C2" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_04092020174548HWZ</t>
+          <t>FACILITY-A_07092020115134ZWO</t>
         </is>
       </c>
       <c r="D2" s="45" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C3" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-B_04092020175200TYM</t>
+          <t>FACILITY-B_07092020115901PQX</t>
         </is>
       </c>
       <c r="D3" s="45" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="C4" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-C_04092020175813KPX</t>
+          <t>FACILITY-C_07092020120504VXK</t>
         </is>
       </c>
       <c r="D4" s="45" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="C2" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="D2" s="45" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C3" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="D3" s="45" t="inlineStr">
@@ -4594,12 +4594,12 @@
       </c>
       <c r="E3" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_04092020174548HWZ</t>
+          <t>FACILITY-A_07092020115134ZWO</t>
         </is>
       </c>
       <c r="F3" s="45" t="inlineStr">
         <is>
-          <t>60000006</t>
+          <t>60000667</t>
         </is>
       </c>
       <c r="G3" s="45" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="C4" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="D4" s="45" t="inlineStr">
@@ -4746,12 +4746,12 @@
       </c>
       <c r="E4" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-B_04092020175200TYM</t>
+          <t>FACILITY-B_07092020115901PQX</t>
         </is>
       </c>
       <c r="F4" s="45" t="inlineStr">
         <is>
-          <t>60000008</t>
+          <t>60000668</t>
         </is>
       </c>
       <c r="G4" s="45" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="C5" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="D5" s="45" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="C2" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="D2" s="45" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C3" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="D3" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_04092020174548HWZ</t>
+          <t>FACILITY-A_07092020115134ZWO</t>
         </is>
       </c>
       <c r="E3" s="37" t="inlineStr">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="F3" s="45" t="inlineStr">
         <is>
-          <t>60000006</t>
+          <t>60000667</t>
         </is>
       </c>
       <c r="G3" s="30" t="inlineStr">
@@ -5479,12 +5479,12 @@
       </c>
       <c r="C4" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="D4" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-B_04092020175200TYM</t>
+          <t>FACILITY-B_07092020115901PQX</t>
         </is>
       </c>
       <c r="E4" s="37" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="F4" s="45" t="inlineStr">
         <is>
-          <t>60000008</t>
+          <t>60000668</t>
         </is>
       </c>
       <c r="G4" s="30" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="C5" s="45" t="inlineStr">
         <is>
-          <t>UAT5_04092020173921</t>
+          <t>UAT5_07092020114431</t>
         </is>
       </c>
       <c r="D5" s="45" t="inlineStr">

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723248\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AC9F2D-EB75-470A-8216-1DC8BD776652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BD3EA7-185B-4354-9EAE-1AC206CFC042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="529">
   <si>
     <t>rowid</t>
   </si>
@@ -747,6 +747,9 @@
     <t>High Value Local RTGS (AUD)</t>
   </si>
   <si>
+    <t>RTGSAUD1-5803</t>
+  </si>
+  <si>
     <t>RTGS-AUD2525</t>
   </si>
   <si>
@@ -766,6 +769,9 @@
   </si>
   <si>
     <t>Sydney</t>
+  </si>
+  <si>
+    <t>412345678</t>
   </si>
   <si>
     <t>4061</t>
@@ -1169,6 +1175,9 @@
     <t>RE_RES</t>
   </si>
   <si>
+    <t>Origination</t>
+  </si>
+  <si>
     <t>AGENCY,  Lending and Leasing</t>
   </si>
   <si>
@@ -1592,15 +1601,15 @@
     <t>FACILITY-A_04092020203200QSI</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>FACILITY-B_04092020203857VYR</t>
   </si>
   <si>
     <t>FACILITY-C_04092020204607UIW</t>
   </si>
   <si>
+    <t>Sanseera Electronics Ltd 003</t>
+  </si>
+  <si>
     <t>FACILITY-A_01092020125452GNK</t>
   </si>
   <si>
@@ -1608,19 +1617,6 @@
   </si>
   <si>
     <t>FACILITY-C_01092020130630APU</t>
-  </si>
-  <si>
-    <t>Sanseera Electronics Ltd 003</t>
-  </si>
-  <si>
-    <t>RTGSAUD1-5801</t>
-  </si>
-  <si>
-    <t>RTGS-AUD2523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412345678
- </t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1626,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1694,11 +1690,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1785,7 +1776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1834,6 +1825,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1847,11 +1839,6 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2443,7 +2430,7 @@
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2452,7 +2439,7 @@
       <c r="E2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="45" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2573,142 +2560,142 @@
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="43.42578125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="44" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="44" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="22" style="44" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="44" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="44" customWidth="1"/>
-    <col min="15" max="15" width="39.5703125" style="44" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="44" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="44" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" style="44" customWidth="1"/>
-    <col min="19" max="19" width="21" style="44" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" style="44" customWidth="1"/>
-    <col min="21" max="21" width="29" style="44" customWidth="1"/>
-    <col min="22" max="22" width="30.140625" style="44" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="44" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" style="44" customWidth="1"/>
-    <col min="25" max="25" width="23" style="44" customWidth="1"/>
-    <col min="26" max="26" width="32.7109375" style="44" customWidth="1"/>
-    <col min="27" max="27" width="31.28515625" style="44" customWidth="1"/>
-    <col min="28" max="28" width="28.7109375" style="44" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" style="44" customWidth="1"/>
-    <col min="30" max="30" width="46.28515625" style="44" customWidth="1"/>
-    <col min="31" max="31" width="47.28515625" style="44" customWidth="1"/>
-    <col min="32" max="32" width="45.5703125" style="44" customWidth="1"/>
-    <col min="33" max="33" width="46.7109375" style="44" customWidth="1"/>
-    <col min="34" max="34" width="47.5703125" style="44" customWidth="1"/>
-    <col min="35" max="35" width="48.5703125" style="44" customWidth="1"/>
-    <col min="36" max="36" width="40.5703125" style="44" customWidth="1"/>
-    <col min="37" max="37" width="41.5703125" style="44" customWidth="1"/>
-    <col min="38" max="38" width="40.5703125" style="44" customWidth="1"/>
-    <col min="39" max="39" width="34.42578125" style="44" customWidth="1"/>
-    <col min="40" max="40" width="41.85546875" style="44" customWidth="1"/>
-    <col min="41" max="41" width="58.140625" style="44" customWidth="1"/>
-    <col min="42" max="42" width="39.85546875" style="44" customWidth="1"/>
-    <col min="43" max="43" width="55" style="44" customWidth="1"/>
-    <col min="44" max="44" width="80" style="44" customWidth="1"/>
-    <col min="45" max="45" width="15.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" style="44" customWidth="1"/>
-    <col min="47" max="47" width="12.5703125" style="44" customWidth="1"/>
-    <col min="48" max="48" width="16.28515625" style="44" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.85546875" style="44" customWidth="1"/>
-    <col min="51" max="51" width="16" style="44" customWidth="1"/>
-    <col min="52" max="52" width="22.5703125" style="44" customWidth="1"/>
-    <col min="53" max="53" width="38.5703125" style="44" customWidth="1"/>
-    <col min="54" max="54" width="28" style="44" customWidth="1"/>
-    <col min="55" max="55" width="19" style="44" customWidth="1"/>
-    <col min="56" max="56" width="54.140625" style="44" customWidth="1"/>
-    <col min="57" max="57" width="36.7109375" style="44" customWidth="1"/>
-    <col min="58" max="58" width="18.5703125" style="44" customWidth="1"/>
-    <col min="59" max="59" width="21" style="44" customWidth="1"/>
-    <col min="60" max="60" width="36.7109375" style="44" customWidth="1"/>
-    <col min="61" max="61" width="20" style="44" customWidth="1"/>
-    <col min="62" max="62" width="10" style="44" customWidth="1"/>
-    <col min="63" max="63" width="27.140625" style="44" customWidth="1"/>
-    <col min="64" max="64" width="22.28515625" style="44" customWidth="1"/>
-    <col min="65" max="65" width="24.28515625" style="44" customWidth="1"/>
-    <col min="66" max="66" width="29.28515625" style="44" customWidth="1"/>
-    <col min="67" max="67" width="33.5703125" style="44" customWidth="1"/>
-    <col min="68" max="68" width="33" style="44" customWidth="1"/>
-    <col min="69" max="69" width="39.140625" style="44" customWidth="1"/>
-    <col min="70" max="70" width="41" style="44" customWidth="1"/>
-    <col min="71" max="72" width="38.5703125" style="44" customWidth="1"/>
-    <col min="73" max="73" width="38.85546875" style="44" customWidth="1"/>
-    <col min="74" max="74" width="34.140625" style="44" customWidth="1"/>
-    <col min="75" max="75" width="38.42578125" style="44" customWidth="1"/>
-    <col min="76" max="76" width="48.7109375" style="44" customWidth="1"/>
-    <col min="77" max="77" width="40" style="44" customWidth="1"/>
-    <col min="78" max="78" width="41" style="44" customWidth="1"/>
-    <col min="79" max="79" width="38" style="44" customWidth="1"/>
-    <col min="80" max="80" width="18.140625" style="44" customWidth="1"/>
-    <col min="81" max="81" width="27.85546875" style="44" customWidth="1"/>
-    <col min="82" max="82" width="34.42578125" style="44" customWidth="1"/>
-    <col min="83" max="84" width="39.28515625" style="44" customWidth="1"/>
-    <col min="85" max="85" width="33.42578125" style="44" customWidth="1"/>
-    <col min="86" max="86" width="46.42578125" style="44" customWidth="1"/>
-    <col min="87" max="87" width="43.85546875" style="44" customWidth="1"/>
-    <col min="88" max="88" width="48.85546875" style="44" customWidth="1"/>
-    <col min="89" max="89" width="34.85546875" style="44" customWidth="1"/>
-    <col min="90" max="90" width="12" style="44" customWidth="1"/>
-    <col min="91" max="91" width="44" style="44" customWidth="1"/>
-    <col min="92" max="92" width="18.85546875" style="44" customWidth="1"/>
-    <col min="93" max="93" width="20" style="44" customWidth="1"/>
-    <col min="94" max="94" width="25" style="44" customWidth="1"/>
-    <col min="95" max="95" width="20.42578125" style="44" customWidth="1"/>
-    <col min="96" max="96" width="25.85546875" style="44" customWidth="1"/>
-    <col min="97" max="97" width="20.42578125" style="44" customWidth="1"/>
-    <col min="98" max="98" width="25" style="44" customWidth="1"/>
-    <col min="99" max="99" width="20.42578125" style="44" customWidth="1"/>
-    <col min="100" max="100" width="20.85546875" style="44" customWidth="1"/>
-    <col min="101" max="102" width="21.140625" style="44" customWidth="1"/>
-    <col min="103" max="104" width="28.7109375" style="44" customWidth="1"/>
-    <col min="105" max="105" width="19" style="44" customWidth="1"/>
-    <col min="106" max="106" width="16.7109375" style="44" customWidth="1"/>
-    <col min="107" max="107" width="21.140625" style="44" customWidth="1"/>
-    <col min="108" max="108" width="14.7109375" style="44" customWidth="1"/>
-    <col min="109" max="109" width="16" style="44" customWidth="1"/>
-    <col min="110" max="111" width="20.42578125" style="44" customWidth="1"/>
-    <col min="112" max="112" width="19" style="44" customWidth="1"/>
-    <col min="113" max="113" width="19.140625" style="44" customWidth="1"/>
-    <col min="114" max="114" width="19" style="44" customWidth="1"/>
-    <col min="115" max="115" width="29.42578125" style="44" customWidth="1"/>
-    <col min="116" max="116" width="19.28515625" style="44" customWidth="1"/>
-    <col min="117" max="117" width="29.42578125" style="44" customWidth="1"/>
-    <col min="118" max="118" width="19.42578125" style="44" customWidth="1"/>
-    <col min="119" max="119" width="31.140625" style="44" customWidth="1"/>
-    <col min="120" max="120" width="29" style="44" customWidth="1"/>
-    <col min="121" max="121" width="28.140625" style="44" customWidth="1"/>
-    <col min="122" max="122" width="26" style="44" customWidth="1"/>
-    <col min="123" max="123" width="26.42578125" style="44" customWidth="1"/>
-    <col min="124" max="124" width="22.85546875" style="44" customWidth="1"/>
-    <col min="125" max="125" width="20.28515625" style="44" customWidth="1"/>
-    <col min="126" max="126" width="23.85546875" style="44" customWidth="1"/>
-    <col min="127" max="127" width="21.42578125" style="44" customWidth="1"/>
-    <col min="128" max="128" width="35.7109375" style="44" customWidth="1"/>
-    <col min="129" max="129" width="34.28515625" style="44" customWidth="1"/>
-    <col min="130" max="130" width="31.7109375" style="44" customWidth="1"/>
-    <col min="131" max="131" width="22" style="44" customWidth="1"/>
-    <col min="132" max="132" width="35.42578125" style="44" customWidth="1"/>
-    <col min="133" max="133" width="22.140625" style="44" customWidth="1"/>
-    <col min="134" max="134" width="53.7109375" style="44" customWidth="1"/>
-    <col min="135" max="135" width="17.5703125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="22" style="45" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="39.5703125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="45" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="45" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="45" customWidth="1"/>
+    <col min="19" max="19" width="21" style="45" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" style="45" customWidth="1"/>
+    <col min="21" max="21" width="29" style="45" customWidth="1"/>
+    <col min="22" max="22" width="30.140625" style="45" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="45" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" style="45" customWidth="1"/>
+    <col min="25" max="25" width="23" style="45" customWidth="1"/>
+    <col min="26" max="26" width="32.7109375" style="45" customWidth="1"/>
+    <col min="27" max="27" width="31.28515625" style="45" customWidth="1"/>
+    <col min="28" max="28" width="28.7109375" style="45" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" style="45" customWidth="1"/>
+    <col min="30" max="30" width="46.28515625" style="45" customWidth="1"/>
+    <col min="31" max="31" width="47.28515625" style="45" customWidth="1"/>
+    <col min="32" max="32" width="45.5703125" style="45" customWidth="1"/>
+    <col min="33" max="33" width="46.7109375" style="45" customWidth="1"/>
+    <col min="34" max="34" width="47.5703125" style="45" customWidth="1"/>
+    <col min="35" max="35" width="48.5703125" style="45" customWidth="1"/>
+    <col min="36" max="36" width="40.5703125" style="45" customWidth="1"/>
+    <col min="37" max="37" width="41.5703125" style="45" customWidth="1"/>
+    <col min="38" max="38" width="40.5703125" style="45" customWidth="1"/>
+    <col min="39" max="39" width="34.42578125" style="45" customWidth="1"/>
+    <col min="40" max="40" width="41.85546875" style="45" customWidth="1"/>
+    <col min="41" max="41" width="58.140625" style="45" customWidth="1"/>
+    <col min="42" max="42" width="39.85546875" style="45" customWidth="1"/>
+    <col min="43" max="43" width="55" style="45" customWidth="1"/>
+    <col min="44" max="44" width="80" style="45" customWidth="1"/>
+    <col min="45" max="45" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.28515625" style="45" customWidth="1"/>
+    <col min="47" max="47" width="12.5703125" style="45" customWidth="1"/>
+    <col min="48" max="48" width="16.28515625" style="45" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.85546875" style="45" customWidth="1"/>
+    <col min="51" max="51" width="16" style="45" customWidth="1"/>
+    <col min="52" max="52" width="22.5703125" style="45" customWidth="1"/>
+    <col min="53" max="53" width="38.5703125" style="45" customWidth="1"/>
+    <col min="54" max="54" width="28" style="45" customWidth="1"/>
+    <col min="55" max="55" width="19" style="45" customWidth="1"/>
+    <col min="56" max="56" width="54.140625" style="45" customWidth="1"/>
+    <col min="57" max="57" width="36.7109375" style="45" customWidth="1"/>
+    <col min="58" max="58" width="18.5703125" style="45" customWidth="1"/>
+    <col min="59" max="59" width="21" style="45" customWidth="1"/>
+    <col min="60" max="60" width="36.7109375" style="45" customWidth="1"/>
+    <col min="61" max="61" width="20" style="45" customWidth="1"/>
+    <col min="62" max="62" width="10" style="45" customWidth="1"/>
+    <col min="63" max="63" width="27.140625" style="45" customWidth="1"/>
+    <col min="64" max="64" width="22.28515625" style="45" customWidth="1"/>
+    <col min="65" max="65" width="24.28515625" style="45" customWidth="1"/>
+    <col min="66" max="66" width="29.28515625" style="45" customWidth="1"/>
+    <col min="67" max="67" width="33.5703125" style="45" customWidth="1"/>
+    <col min="68" max="68" width="33" style="45" customWidth="1"/>
+    <col min="69" max="69" width="39.140625" style="45" customWidth="1"/>
+    <col min="70" max="70" width="41" style="45" customWidth="1"/>
+    <col min="71" max="72" width="38.5703125" style="45" customWidth="1"/>
+    <col min="73" max="73" width="38.85546875" style="45" customWidth="1"/>
+    <col min="74" max="74" width="34.140625" style="45" customWidth="1"/>
+    <col min="75" max="75" width="38.42578125" style="45" customWidth="1"/>
+    <col min="76" max="76" width="48.7109375" style="45" customWidth="1"/>
+    <col min="77" max="77" width="40" style="45" customWidth="1"/>
+    <col min="78" max="78" width="41" style="45" customWidth="1"/>
+    <col min="79" max="79" width="38" style="45" customWidth="1"/>
+    <col min="80" max="80" width="18.140625" style="45" customWidth="1"/>
+    <col min="81" max="81" width="27.85546875" style="45" customWidth="1"/>
+    <col min="82" max="82" width="34.42578125" style="45" customWidth="1"/>
+    <col min="83" max="84" width="39.28515625" style="45" customWidth="1"/>
+    <col min="85" max="85" width="33.42578125" style="45" customWidth="1"/>
+    <col min="86" max="86" width="46.42578125" style="45" customWidth="1"/>
+    <col min="87" max="87" width="43.85546875" style="45" customWidth="1"/>
+    <col min="88" max="88" width="48.85546875" style="45" customWidth="1"/>
+    <col min="89" max="89" width="34.85546875" style="45" customWidth="1"/>
+    <col min="90" max="90" width="12" style="45" customWidth="1"/>
+    <col min="91" max="91" width="44" style="45" customWidth="1"/>
+    <col min="92" max="92" width="18.85546875" style="45" customWidth="1"/>
+    <col min="93" max="93" width="20" style="45" customWidth="1"/>
+    <col min="94" max="94" width="25" style="45" customWidth="1"/>
+    <col min="95" max="95" width="20.42578125" style="45" customWidth="1"/>
+    <col min="96" max="96" width="25.85546875" style="45" customWidth="1"/>
+    <col min="97" max="97" width="20.42578125" style="45" customWidth="1"/>
+    <col min="98" max="98" width="25" style="45" customWidth="1"/>
+    <col min="99" max="99" width="20.42578125" style="45" customWidth="1"/>
+    <col min="100" max="100" width="20.85546875" style="45" customWidth="1"/>
+    <col min="101" max="102" width="21.140625" style="45" customWidth="1"/>
+    <col min="103" max="104" width="28.7109375" style="45" customWidth="1"/>
+    <col min="105" max="105" width="19" style="45" customWidth="1"/>
+    <col min="106" max="106" width="16.7109375" style="45" customWidth="1"/>
+    <col min="107" max="107" width="21.140625" style="45" customWidth="1"/>
+    <col min="108" max="108" width="14.7109375" style="45" customWidth="1"/>
+    <col min="109" max="109" width="16" style="45" customWidth="1"/>
+    <col min="110" max="111" width="20.42578125" style="45" customWidth="1"/>
+    <col min="112" max="112" width="19" style="45" customWidth="1"/>
+    <col min="113" max="113" width="19.140625" style="45" customWidth="1"/>
+    <col min="114" max="114" width="19" style="45" customWidth="1"/>
+    <col min="115" max="115" width="29.42578125" style="45" customWidth="1"/>
+    <col min="116" max="116" width="19.28515625" style="45" customWidth="1"/>
+    <col min="117" max="117" width="29.42578125" style="45" customWidth="1"/>
+    <col min="118" max="118" width="19.42578125" style="45" customWidth="1"/>
+    <col min="119" max="119" width="31.140625" style="45" customWidth="1"/>
+    <col min="120" max="120" width="29" style="45" customWidth="1"/>
+    <col min="121" max="121" width="28.140625" style="45" customWidth="1"/>
+    <col min="122" max="122" width="26" style="45" customWidth="1"/>
+    <col min="123" max="123" width="26.42578125" style="45" customWidth="1"/>
+    <col min="124" max="124" width="22.85546875" style="45" customWidth="1"/>
+    <col min="125" max="125" width="20.28515625" style="45" customWidth="1"/>
+    <col min="126" max="126" width="23.85546875" style="45" customWidth="1"/>
+    <col min="127" max="127" width="21.42578125" style="45" customWidth="1"/>
+    <col min="128" max="128" width="35.7109375" style="45" customWidth="1"/>
+    <col min="129" max="129" width="34.28515625" style="45" customWidth="1"/>
+    <col min="130" max="130" width="31.7109375" style="45" customWidth="1"/>
+    <col min="131" max="131" width="22" style="45" customWidth="1"/>
+    <col min="132" max="132" width="35.42578125" style="45" customWidth="1"/>
+    <col min="133" max="133" width="22.140625" style="45" customWidth="1"/>
+    <col min="134" max="134" width="53.7109375" style="45" customWidth="1"/>
+    <col min="135" max="135" width="17.5703125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:135" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3119,22 +3106,22 @@
       </c>
     </row>
     <row r="2" spans="1:135" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="45">
         <v>8</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="45" t="s">
         <v>209</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -3161,7 +3148,7 @@
       <c r="N2" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="O2" s="44">
+      <c r="O2" s="45">
         <v>8</v>
       </c>
       <c r="P2" s="7" t="s">
@@ -3206,59 +3193,59 @@
       <c r="AC2" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="AD2" s="44" t="s">
+      <c r="AD2" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AK2" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AL2" s="45" t="s">
         <v>237</v>
       </c>
       <c r="AM2" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="AN2" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="AO2" s="44" t="s">
-        <v>528</v>
-      </c>
-      <c r="AP2" s="44" t="s">
+      <c r="AN2" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO2" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="AQ2" s="44" t="s">
+      <c r="AP2" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="AR2" s="44" t="s">
+      <c r="AQ2" s="45" t="s">
         <v>242</v>
       </c>
+      <c r="AR2" s="45" t="s">
+        <v>243</v>
+      </c>
       <c r="AS2" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AV2" s="7" t="s">
         <v>54</v>
@@ -3266,217 +3253,217 @@
       <c r="AW2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AX2" s="7" t="s">
-        <v>529</v>
+      <c r="AX2" s="17" t="s">
+        <v>247</v>
       </c>
       <c r="AY2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="AZ2" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BA2" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BB2" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BC2" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BD2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="BE2" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BG2" s="7" t="s">
         <v>215</v>
       </c>
       <c r="BH2" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BJ2" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BL2" s="7" t="s">
         <v>221</v>
       </c>
       <c r="BM2" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="BN2" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="BO2" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BP2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="BR2" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="BS2" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="BT2" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="BY2" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ2" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="CA2" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="CB2" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="CC2" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="CD2" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="CE2" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="CF2" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="CG2" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="CH2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="CI2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="CJ2" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="BQ2" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="BR2" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="BS2" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="BT2" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU2" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="BV2" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="BW2" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="BX2" s="7" t="s">
+      <c r="CK2" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="BY2" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="BZ2" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="CA2" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="CB2" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="CC2" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="CD2" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="CE2" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="CF2" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="CG2" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="CH2" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI2" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="CJ2" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="CK2" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="CL2" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CM2" s="16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="CN2" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="CO2" s="16" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CP2" s="16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ2" s="16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CR2" s="16" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="CS2" s="16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="CT2" s="16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="CU2" s="16" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>228</v>
       </c>
       <c r="CW2" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="CX2" s="16" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="CY2" s="17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="CZ2" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="DA2" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="DB2" s="18" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="DC2" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="DD2" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="DE2" s="15"/>
       <c r="DF2" s="15"/>
       <c r="DG2" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="DH2" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="DH2" s="18" t="s">
-        <v>287</v>
-      </c>
       <c r="DI2" s="15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="DJ2" s="15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="DK2" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="DL2" s="15" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="DM2" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="DN2" s="15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="DO2" s="15" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="DP2" s="19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="DQ2" s="15" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="DR2" s="15" t="s">
         <v>227</v>
@@ -3491,7 +3478,7 @@
         <v>227</v>
       </c>
       <c r="DV2" s="15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="DW2" s="15" t="s">
         <v>226</v>
@@ -3512,13 +3499,13 @@
         <v>227</v>
       </c>
       <c r="EC2" s="15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="ED2" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="EE2" s="20" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3535,65 +3522,65 @@
   </sheetPr>
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="15" style="44" customWidth="1"/>
-    <col min="3" max="3" width="17" style="44" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="44" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="44" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="44" customWidth="1"/>
-    <col min="13" max="13" width="48.5703125" style="44" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" style="44" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" style="44" customWidth="1"/>
-    <col min="17" max="17" width="23" style="44" customWidth="1"/>
-    <col min="18" max="18" width="45.85546875" style="44" customWidth="1"/>
-    <col min="19" max="19" width="36.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" style="44" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="44" customWidth="1"/>
-    <col min="22" max="22" width="21.5703125" style="44" customWidth="1"/>
-    <col min="23" max="23" width="25.85546875" style="44" customWidth="1"/>
-    <col min="24" max="24" width="40.7109375" style="44" customWidth="1"/>
-    <col min="25" max="25" width="23.28515625" style="44" customWidth="1"/>
-    <col min="26" max="26" width="22.85546875" style="44" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" style="44" customWidth="1"/>
-    <col min="28" max="28" width="21.85546875" style="44" customWidth="1"/>
-    <col min="29" max="29" width="16.85546875" style="44" customWidth="1"/>
-    <col min="30" max="30" width="18.85546875" style="44" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" style="44" customWidth="1"/>
-    <col min="32" max="32" width="18.85546875" style="44" customWidth="1"/>
-    <col min="33" max="33" width="25" style="44" customWidth="1"/>
-    <col min="34" max="34" width="24.42578125" style="44" customWidth="1"/>
-    <col min="35" max="35" width="35.140625" style="44" customWidth="1"/>
-    <col min="36" max="36" width="27.85546875" style="44" customWidth="1"/>
-    <col min="37" max="37" width="28.85546875" style="44" customWidth="1"/>
-    <col min="38" max="38" width="29.28515625" style="44" customWidth="1"/>
-    <col min="39" max="39" width="36" style="44" customWidth="1"/>
-    <col min="40" max="40" width="34.42578125" style="44" customWidth="1"/>
-    <col min="41" max="41" width="62.140625" style="44" customWidth="1"/>
-    <col min="42" max="42" width="21" style="44" customWidth="1"/>
-    <col min="43" max="43" width="56.5703125" style="44" customWidth="1"/>
-    <col min="44" max="44" width="17.7109375" style="44" customWidth="1"/>
-    <col min="45" max="45" width="24.5703125" style="44" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" style="44" customWidth="1"/>
-    <col min="47" max="47" width="21.140625" style="44" customWidth="1"/>
-    <col min="48" max="48" width="28.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="35.28515625" style="44" customWidth="1"/>
-    <col min="50" max="50" width="25.28515625" style="44" customWidth="1"/>
-    <col min="51" max="51" width="41.85546875" style="44" customWidth="1"/>
-    <col min="52" max="52" width="34.85546875" style="44" customWidth="1"/>
-    <col min="53" max="53" width="20" style="44" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="15" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17" style="45" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="45" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="45" customWidth="1"/>
+    <col min="13" max="13" width="48.5703125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="45" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="45" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" style="45" customWidth="1"/>
+    <col min="17" max="17" width="23" style="45" customWidth="1"/>
+    <col min="18" max="18" width="45.85546875" style="45" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="45" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="45" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" style="45" customWidth="1"/>
+    <col min="23" max="23" width="25.85546875" style="45" customWidth="1"/>
+    <col min="24" max="24" width="40.7109375" style="45" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" style="45" customWidth="1"/>
+    <col min="26" max="26" width="22.85546875" style="45" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" style="45" customWidth="1"/>
+    <col min="28" max="28" width="21.85546875" style="45" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" style="45" customWidth="1"/>
+    <col min="30" max="30" width="18.85546875" style="45" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" style="45" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" style="45" customWidth="1"/>
+    <col min="33" max="33" width="25" style="45" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" style="45" customWidth="1"/>
+    <col min="35" max="35" width="35.140625" style="45" customWidth="1"/>
+    <col min="36" max="36" width="27.85546875" style="45" customWidth="1"/>
+    <col min="37" max="37" width="28.85546875" style="45" customWidth="1"/>
+    <col min="38" max="38" width="29.28515625" style="45" customWidth="1"/>
+    <col min="39" max="39" width="36" style="45" customWidth="1"/>
+    <col min="40" max="40" width="34.42578125" style="45" customWidth="1"/>
+    <col min="41" max="41" width="62.140625" style="45" customWidth="1"/>
+    <col min="42" max="42" width="21" style="45" customWidth="1"/>
+    <col min="43" max="43" width="56.5703125" style="45" customWidth="1"/>
+    <col min="44" max="44" width="17.7109375" style="45" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" style="45" customWidth="1"/>
+    <col min="46" max="46" width="18.42578125" style="45" customWidth="1"/>
+    <col min="47" max="47" width="21.140625" style="45" customWidth="1"/>
+    <col min="48" max="48" width="28.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="35.28515625" style="45" customWidth="1"/>
+    <col min="50" max="50" width="25.28515625" style="45" customWidth="1"/>
+    <col min="51" max="51" width="41.85546875" style="45" customWidth="1"/>
+    <col min="52" max="52" width="34.85546875" style="45" customWidth="1"/>
+    <col min="53" max="53" width="20" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3604,340 +3591,340 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AX1" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>517</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="M2" s="44">
+      <c r="C2" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="M2" s="45">
         <v>8</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="U2" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="W2" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X2" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z2" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB2" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC2" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD2" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE2" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG2" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH2" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO2" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="AP2" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ2" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR2" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="AS2" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT2" s="45">
+        <v>100</v>
+      </c>
+      <c r="AU2" s="45">
+        <v>100</v>
+      </c>
+      <c r="AV2" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="AW2" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX2" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY2" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="AZ2" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="BA2" s="45" t="s">
         <v>359</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q2" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="R2" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="T2" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="U2" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="V2" t="s">
-        <v>364</v>
-      </c>
-      <c r="W2" t="s">
-        <v>365</v>
-      </c>
-      <c r="X2" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y2" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z2" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB2" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC2" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE2" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG2" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH2" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AP2" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ2" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="AR2" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="AS2" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="AT2" s="44">
-        <v>100</v>
-      </c>
-      <c r="AU2" s="44">
-        <v>100</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>379</v>
-      </c>
-      <c r="AW2" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="AX2" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="AY2" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="AZ2" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA2" s="44" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="AX3" s="44" t="s">
-        <v>385</v>
+      <c r="A3" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="AX3" s="45" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="AX4" s="44" t="s">
-        <v>387</v>
+      <c r="A4" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="AX4" s="45" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3954,46 +3941,46 @@
   </sheetPr>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="38" style="44" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="44" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="38" style="44" customWidth="1"/>
-    <col min="11" max="11" width="38.85546875" style="44" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" style="44" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="44" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" style="44" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="44" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="44" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="44" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" style="44" customWidth="1"/>
-    <col min="19" max="19" width="34.85546875" style="44" customWidth="1"/>
-    <col min="20" max="20" width="18" style="44" customWidth="1"/>
-    <col min="21" max="21" width="33.28515625" style="44" customWidth="1"/>
-    <col min="22" max="22" width="32.7109375" style="44" customWidth="1"/>
-    <col min="23" max="23" width="21" style="44" customWidth="1"/>
-    <col min="24" max="24" width="20" style="44" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" style="44" customWidth="1"/>
-    <col min="26" max="26" width="25.85546875" style="44" customWidth="1"/>
-    <col min="27" max="27" width="26.5703125" style="44" customWidth="1"/>
-    <col min="28" max="28" width="25.5703125" style="44" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="44" customWidth="1"/>
-    <col min="30" max="30" width="20.42578125" style="44" customWidth="1"/>
-    <col min="31" max="31" width="39.42578125" style="44" customWidth="1"/>
-    <col min="32" max="32" width="34.85546875" style="44" customWidth="1"/>
-    <col min="33" max="33" width="21" style="44" customWidth="1"/>
-    <col min="34" max="34" width="23.42578125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="38" style="45" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="45" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="38" style="45" customWidth="1"/>
+    <col min="11" max="11" width="38.85546875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" style="45" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="45" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="45" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="45" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="45" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="45" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" style="45" customWidth="1"/>
+    <col min="19" max="19" width="34.85546875" style="45" customWidth="1"/>
+    <col min="20" max="20" width="18" style="45" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" style="45" customWidth="1"/>
+    <col min="22" max="22" width="32.7109375" style="45" customWidth="1"/>
+    <col min="23" max="23" width="21" style="45" customWidth="1"/>
+    <col min="24" max="24" width="20" style="45" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" style="45" customWidth="1"/>
+    <col min="26" max="26" width="25.85546875" style="45" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" style="45" customWidth="1"/>
+    <col min="28" max="28" width="25.5703125" style="45" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="45" customWidth="1"/>
+    <col min="30" max="30" width="20.42578125" style="45" customWidth="1"/>
+    <col min="31" max="31" width="39.42578125" style="45" customWidth="1"/>
+    <col min="32" max="32" width="34.85546875" style="45" customWidth="1"/>
+    <col min="33" max="33" width="21" style="45" customWidth="1"/>
+    <col min="34" max="34" width="23.42578125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4004,394 +3991,394 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Y1" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD1" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="Z1" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="AA1" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="AB1" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC1" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="AD1" s="27" t="s">
-        <v>404</v>
-      </c>
       <c r="AE1" s="23" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AF1" s="23" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AG1" s="23" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AH1" s="23" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>517</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>519</v>
+        <v>420</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>522</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="R2" s="45" t="s">
-        <v>424</v>
-      </c>
-      <c r="S2" s="44" t="s">
-        <v>362</v>
+        <v>427</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>364</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="X2" s="44">
+      <c r="X2" s="45">
         <v>8</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA2" s="44" t="s">
-        <v>360</v>
+        <v>429</v>
+      </c>
+      <c r="AA2" s="45" t="s">
+        <v>362</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AD2" s="15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>362</v>
+        <v>431</v>
+      </c>
+      <c r="AF2" s="45" t="s">
+        <v>364</v>
       </c>
       <c r="AG2" s="15" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AH2" s="15" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>517</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>521</v>
+        <v>434</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>523</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
       <c r="M3" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="R3" s="45" t="s">
-        <v>424</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>362</v>
+        <v>427</v>
+      </c>
+      <c r="S3" s="45" t="s">
+        <v>364</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="X3" s="44">
+      <c r="X3" s="45">
         <v>8</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA3" s="44" t="s">
-        <v>360</v>
+        <v>429</v>
+      </c>
+      <c r="AA3" s="45" t="s">
+        <v>362</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AC3" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AD3" s="15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>362</v>
+        <v>431</v>
+      </c>
+      <c r="AF3" s="45" t="s">
+        <v>364</v>
       </c>
       <c r="AG3" s="15" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AH3" s="15" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>517</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>522</v>
+        <v>435</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>524</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="M4" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="R4" s="45" t="s">
-        <v>424</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>362</v>
+        <v>427</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>364</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="X4" s="44">
+      <c r="X4" s="45">
         <v>8</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA4" s="44" t="s">
-        <v>360</v>
+        <v>429</v>
+      </c>
+      <c r="AA4" s="45" t="s">
+        <v>362</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AC4" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AD4" s="15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>362</v>
+        <v>431</v>
+      </c>
+      <c r="AF4" s="45" t="s">
+        <v>364</v>
       </c>
       <c r="AG4" s="15" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AH4" s="15" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -4408,25 +4395,25 @@
   </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="33" style="44" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="22" style="44" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" style="44" customWidth="1"/>
-    <col min="9" max="10" width="33.42578125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="44" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="33" style="45" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="22" style="45" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" style="45" customWidth="1"/>
+    <col min="9" max="10" width="33.42578125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="45" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4437,172 +4424,172 @@
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>416</v>
+      <c r="B2" s="15" t="s">
+        <v>419</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D2" t="s">
-        <v>444</v>
+        <v>526</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>447</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" t="s">
-        <v>445</v>
+        <v>373</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>448</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="J2" t="s">
-        <v>449</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="L2" t="s">
-        <v>450</v>
-      </c>
-      <c r="M2" t="s">
         <v>451</v>
       </c>
-      <c r="N2" t="s">
+      <c r="J2" s="45" t="s">
         <v>452</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>416</v>
+      <c r="A3" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>419</v>
       </c>
       <c r="C3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D3" t="s">
-        <v>444</v>
+        <v>527</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>447</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="F3" t="s">
-        <v>445</v>
+        <v>373</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>448</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="J3" t="s">
-        <v>449</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="L3" t="s">
-        <v>450</v>
-      </c>
-      <c r="M3" t="s">
         <v>451</v>
       </c>
-      <c r="N3" t="s">
+      <c r="J3" s="45" t="s">
         <v>452</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="F4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="J4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="L4" t="s">
-        <v>450</v>
-      </c>
-      <c r="M4" t="s">
-        <v>451</v>
-      </c>
-      <c r="N4" t="s">
-        <v>452</v>
+      <c r="L4" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -4625,25 +4612,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="15" style="44" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="44" customWidth="1"/>
-    <col min="7" max="8" width="17.42578125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="44" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="44" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" style="44" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" style="44" customWidth="1"/>
-    <col min="17" max="17" width="24" style="44" customWidth="1"/>
-    <col min="18" max="18" width="30.140625" style="44" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="44" customWidth="1"/>
-    <col min="20" max="20" width="22.140625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="15" style="45" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="45" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="45" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="45" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" style="45" customWidth="1"/>
+    <col min="17" max="17" width="24" style="45" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" style="45" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="45" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="45" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4655,55 +4642,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="T1" s="21" t="s">
         <v>204</v>
@@ -4713,367 +4700,367 @@
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="44" t="s">
+      <c r="B2" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>467</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="G2" s="44" t="s">
+      <c r="E2" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="G2" s="45" t="s">
         <v>218</v>
       </c>
       <c r="H2" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="K2" s="44" t="s">
+      <c r="I2" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="R2" t="s">
+        <v>477</v>
+      </c>
+      <c r="S2" t="s">
         <v>240</v>
       </c>
-      <c r="L2" s="44" t="s">
-        <v>469</v>
-      </c>
-      <c r="M2" s="44" t="s">
-        <v>470</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q2" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="R2" t="s">
-        <v>474</v>
-      </c>
-      <c r="S2" t="s">
-        <v>239</v>
-      </c>
       <c r="T2" t="s">
-        <v>298</v>
-      </c>
-      <c r="U2" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="V2" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="W2" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="X2" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y2" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z2" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA2" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AB2" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC2" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AD2" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="U2" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="W2" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="X2" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z2" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA2" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB2" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC2" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD2" s="45" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D3" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="G3" s="44" t="s">
+      <c r="E3" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="G3" s="45" t="s">
         <v>218</v>
       </c>
       <c r="H3" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="K3" s="44" t="s">
+      <c r="I3" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q3" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="R3" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="S3" t="s">
         <v>240</v>
       </c>
-      <c r="L3" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="M3" s="44" t="s">
+      <c r="T3" t="s">
+        <v>300</v>
+      </c>
+      <c r="U3" s="45" t="s">
         <v>478</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="S3" t="s">
-        <v>239</v>
-      </c>
-      <c r="T3" t="s">
-        <v>298</v>
-      </c>
-      <c r="U3" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="V3" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="W3" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="X3" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y3" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z3" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA3" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AB3" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC3" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AD3" s="44" t="s">
+      <c r="V3" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="W3" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="X3" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y3" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z3" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA3" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB3" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC3" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD3" s="45" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>480</v>
-      </c>
-      <c r="G4" s="44" t="s">
+      <c r="E4" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>218</v>
       </c>
       <c r="H4" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="K4" s="44" t="s">
+      <c r="I4" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q4" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="R4" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="S4" t="s">
         <v>240</v>
       </c>
-      <c r="L4" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="P4" s="44" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q4" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="R4" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="S4" t="s">
-        <v>239</v>
-      </c>
       <c r="T4" t="s">
-        <v>298</v>
-      </c>
-      <c r="U4" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="V4" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="W4" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="X4" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y4" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z4" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA4" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AB4" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC4" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AD4" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="W4" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="X4" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y4" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z4" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA4" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB4" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC4" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD4" s="45" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>486</v>
-      </c>
-      <c r="G5" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>218</v>
       </c>
       <c r="H5" t="s">
         <v>215</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="K5" s="44" t="s">
+      <c r="I5" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q5" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="S5" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>470</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q5" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="S5" t="s">
-        <v>239</v>
-      </c>
       <c r="T5" t="s">
-        <v>298</v>
-      </c>
-      <c r="U5" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="V5" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="W5" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="X5" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y5" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z5" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA5" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AB5" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC5" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="AD5" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="U5" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="V5" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="W5" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y5" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z5" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA5" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB5" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC5" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD5" s="45" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5097,160 +5084,160 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="36" customWidth="1"/>
-    <col min="7" max="9" width="24.7109375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="36" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="36" customWidth="1"/>
-    <col min="12" max="12" width="31" style="36" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" style="36" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="36" customWidth="1"/>
-    <col min="15" max="15" width="23" style="39" customWidth="1"/>
-    <col min="16" max="16" width="31.7109375" style="36" customWidth="1"/>
-    <col min="17" max="17" width="32.28515625" style="36" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" style="36" customWidth="1"/>
-    <col min="19" max="19" width="11" style="36" customWidth="1"/>
-    <col min="20" max="20" width="20.85546875" style="36" customWidth="1"/>
-    <col min="21" max="21" width="38.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="36" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="37" customWidth="1"/>
+    <col min="7" max="9" width="24.7109375" style="37" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="37" customWidth="1"/>
+    <col min="12" max="12" width="31" style="37" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="37" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="37" customWidth="1"/>
+    <col min="15" max="15" width="23" style="40" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" style="37" customWidth="1"/>
+    <col min="17" max="17" width="32.28515625" style="37" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="37" customWidth="1"/>
+    <col min="19" max="19" width="11" style="37" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" style="37" customWidth="1"/>
+    <col min="21" max="21" width="38.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:54" s="36" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>454</v>
+      <c r="D1" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>457</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="K1" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="I1" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="J1" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1" s="35" t="s">
+      <c r="K1" s="36" t="s">
         <v>495</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="M1" s="36" t="s">
         <v>497</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="N1" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="P1" s="36" t="s">
         <v>498</v>
       </c>
+      <c r="Q1" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>501</v>
+      </c>
       <c r="T1" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>499</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>500</v>
+        <v>439</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:54" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>467</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>468</v>
+        <v>419</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>471</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>469</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>502</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>503</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="N2" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="O2" s="44" t="s">
+      <c r="I2" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="P2" s="39" t="s">
-        <v>298</v>
+      <c r="P2" s="40" t="s">
+        <v>300</v>
       </c>
       <c r="Q2" t="s">
-        <v>239</v>
-      </c>
-      <c r="R2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="S2" s="42" t="s">
-        <v>505</v>
-      </c>
-      <c r="T2" s="42" t="s">
-        <v>446</v>
+      <c r="R2" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>449</v>
       </c>
       <c r="U2" t="s">
         <v>218</v>
       </c>
-      <c r="V2" s="43" t="s">
-        <v>506</v>
+      <c r="V2" s="44" t="s">
+        <v>509</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -5268,89 +5255,89 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45"/>
     </row>
-    <row r="3" spans="1:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:54" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>380</v>
-      </c>
       <c r="H3" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="M3" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>510</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="O3" s="44" t="s">
+      <c r="N3" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="O3" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="P3" s="39" t="s">
-        <v>298</v>
+      <c r="P3" s="40" t="s">
+        <v>300</v>
       </c>
       <c r="Q3" t="s">
-        <v>239</v>
-      </c>
-      <c r="R3" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="S3" s="42" t="s">
-        <v>511</v>
-      </c>
-      <c r="T3" s="42" t="s">
-        <v>446</v>
+      <c r="R3" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>449</v>
       </c>
       <c r="U3" t="s">
         <v>218</v>
       </c>
-      <c r="V3" s="43" t="s">
-        <v>506</v>
+      <c r="V3" s="44" t="s">
+        <v>509</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -5368,89 +5355,89 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
     </row>
-    <row r="4" spans="1:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>386</v>
+    <row r="4" spans="1:54" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>389</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>480</v>
+        <v>419</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>483</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>513</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>514</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="O4" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="O4" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="39" t="s">
-        <v>298</v>
+      <c r="P4" s="40" t="s">
+        <v>300</v>
       </c>
       <c r="Q4" t="s">
-        <v>239</v>
-      </c>
-      <c r="R4" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="S4" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="T4" s="42" t="s">
-        <v>446</v>
+      <c r="R4" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>449</v>
       </c>
       <c r="U4" t="s">
         <v>218</v>
       </c>
-      <c r="V4" s="43" t="s">
-        <v>506</v>
+      <c r="V4" s="44" t="s">
+        <v>509</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -5468,87 +5455,87 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="45"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="45"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="45"/>
     </row>
-    <row r="5" spans="1:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>484</v>
+    <row r="5" spans="1:54" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>487</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>486</v>
+        <v>419</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>489</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="O5" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="O5" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="P5" s="39" t="s">
-        <v>298</v>
+      <c r="P5" s="40" t="s">
+        <v>300</v>
       </c>
       <c r="Q5" t="s">
-        <v>239</v>
-      </c>
-      <c r="R5" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="S5" s="42" t="s">
-        <v>473</v>
-      </c>
-      <c r="T5" s="42" t="s">
-        <v>446</v>
+      <c r="R5" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="T5" s="43" t="s">
+        <v>449</v>
       </c>
       <c r="U5" t="s">
         <v>218</v>
       </c>
-      <c r="V5" s="43" t="s">
-        <v>506</v>
+      <c r="V5" s="44" t="s">
+        <v>509</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -5566,22 +5553,22 @@
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="44"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45"/>
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723248\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BD3EA7-185B-4354-9EAE-1AC206CFC042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBBB8FA-D02D-4239-9C69-DE4BAA71C151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1592,19 +1592,19 @@
     <t>167,154.30</t>
   </si>
   <si>
+    <t>FACILITY-A_04092020203200QSI</t>
+  </si>
+  <si>
+    <t>FACILITY-B_04092020203857VYR</t>
+  </si>
+  <si>
+    <t>FACILITY-C_04092020204607UIW</t>
+  </si>
+  <si>
     <t>UAT5_04092020202450</t>
   </si>
   <si>
     <t>UAT504092020202451</t>
-  </si>
-  <si>
-    <t>FACILITY-A_04092020203200QSI</t>
-  </si>
-  <si>
-    <t>FACILITY-B_04092020203857VYR</t>
-  </si>
-  <si>
-    <t>FACILITY-C_04092020204607UIW</t>
   </si>
   <si>
     <t>Sanseera Electronics Ltd 003</t>
@@ -2560,8 +2560,8 @@
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+    <sheetView topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3522,8 +3522,8 @@
   </sheetPr>
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3758,13 +3758,13 @@
         <v>356</v>
       </c>
       <c r="E2" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="G2" s="45" t="s">
         <v>520</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>521</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>522</v>
       </c>
       <c r="H2" s="45" t="s">
         <v>359</v>
@@ -3910,7 +3910,7 @@
         <v>386</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AX3" s="45" t="s">
         <v>388</v>
@@ -3921,7 +3921,7 @@
         <v>389</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AX4" s="45" t="s">
         <v>390</v>
@@ -3941,8 +3941,8 @@
   </sheetPr>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4098,10 +4098,10 @@
         <v>420</v>
       </c>
       <c r="D2" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>520</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>522</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>241</v>
@@ -4202,10 +4202,10 @@
         <v>434</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>241</v>
@@ -4297,10 +4297,10 @@
         <v>435</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>241</v>
@@ -4395,8 +4395,8 @@
   </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723248\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C169EA-1017-49D2-884E-65C1FDA7BE38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E783A5-0832-442C-9794-9EB3074D0FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="530">
   <si>
     <t>rowid</t>
   </si>
@@ -747,9 +747,6 @@
     <t>High Value Local RTGS (AUD)</t>
   </si>
   <si>
-    <t>RTGSAUD1-5803</t>
-  </si>
-  <si>
     <t>RTGS-AUD2525</t>
   </si>
   <si>
@@ -1610,13 +1607,19 @@
     <t>FACILITY-C_04092020204607UIW</t>
   </si>
   <si>
-    <t>FACILITY-A_01092020125452GNK</t>
-  </si>
-  <si>
-    <t>FACILITY-B_01092020130042CWI</t>
-  </si>
-  <si>
-    <t>FACILITY-C_01092020130630APU</t>
+    <t>FACILITY-B_08102019114949AGS</t>
+  </si>
+  <si>
+    <t>60000020</t>
+  </si>
+  <si>
+    <t>60000031</t>
+  </si>
+  <si>
+    <t>RTGS-AUD2523</t>
+  </si>
+  <si>
+    <t>RTGSAUD1-5801</t>
   </si>
 </sst>
 </file>
@@ -2560,8 +2563,8 @@
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3113,7 +3116,7 @@
         <v>207</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>208</v>
@@ -3224,28 +3227,28 @@
         <v>238</v>
       </c>
       <c r="AN2" s="45" t="s">
-        <v>239</v>
+        <v>529</v>
       </c>
       <c r="AO2" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="AP2" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="AP2" s="45" t="s">
+      <c r="AQ2" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="AQ2" s="45" t="s">
+      <c r="AR2" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="AR2" s="45" t="s">
+      <c r="AS2" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="AV2" s="7" t="s">
         <v>54</v>
@@ -3254,216 +3257,216 @@
         <v>54</v>
       </c>
       <c r="AX2" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AY2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="AZ2" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="BA2" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BB2" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="BB2" s="7" t="s">
+      <c r="BC2" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="BD2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="BE2" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="BF2" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="BF2" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="BG2" s="7" t="s">
         <v>215</v>
       </c>
       <c r="BH2" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BI2" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="BJ2" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="BK2" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BL2" s="7" t="s">
         <v>221</v>
       </c>
       <c r="BM2" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="BN2" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="BN2" s="7" t="s">
+      <c r="BO2" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="BO2" s="7" t="s">
+      <c r="BP2" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="BQ2" s="7" t="s">
+      <c r="BR2" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="BR2" s="15" t="s">
+      <c r="BS2" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="BT2" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="BS2" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="BT2" s="15" t="s">
+      <c r="BU2" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="BU2" s="7" t="s">
+      <c r="BV2" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BW2" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BX2" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="BX2" s="7" t="s">
+      <c r="BY2" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="BY2" s="45" t="s">
+      <c r="BZ2" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="BZ2" s="45" t="s">
+      <c r="CA2" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB2" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="CA2" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="CB2" s="15" t="s">
+      <c r="CC2" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="CC2" s="15" t="s">
+      <c r="CD2" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="CD2" s="15" t="s">
+      <c r="CE2" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="CF2" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="CG2" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="CE2" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="CF2" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="CG2" s="7" t="s">
+      <c r="CH2" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="CH2" s="7" t="s">
+      <c r="CI2" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="CI2" s="7" t="s">
+      <c r="CJ2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="CK2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="CL2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="CJ2" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="CK2" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="CL2" s="7" t="s">
+      <c r="CM2" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="CM2" s="16" t="s">
+      <c r="CN2" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="CN2" s="16" t="s">
+      <c r="CO2" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="CO2" s="16" t="s">
+      <c r="CP2" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="CP2" s="16" t="s">
+      <c r="CQ2" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="CQ2" s="16" t="s">
+      <c r="CR2" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="CR2" s="16" t="s">
+      <c r="CS2" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="CS2" s="16" t="s">
+      <c r="CT2" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="CT2" s="16" t="s">
+      <c r="CU2" s="16" t="s">
         <v>283</v>
-      </c>
-      <c r="CU2" s="16" t="s">
-        <v>284</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>228</v>
       </c>
       <c r="CW2" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="CX2" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="CX2" s="16" t="s">
+      <c r="CY2" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="CY2" s="17" t="s">
+      <c r="CZ2" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="CZ2" s="7" t="s">
+      <c r="DA2" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="DA2" s="18" t="s">
+      <c r="DB2" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="DC2" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="DD2" s="18" t="s">
         <v>289</v>
-      </c>
-      <c r="DB2" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="DC2" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="DD2" s="18" t="s">
-        <v>290</v>
       </c>
       <c r="DE2" s="15"/>
       <c r="DF2" s="15"/>
       <c r="DG2" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="DH2" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="DI2" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="DH2" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="DI2" s="15" t="s">
+      <c r="DJ2" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="DJ2" s="15" t="s">
+      <c r="DK2" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="DK2" s="18" t="s">
+      <c r="DL2" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="DL2" s="15" t="s">
+      <c r="DM2" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="DN2" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="DM2" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="DN2" s="15" t="s">
+      <c r="DO2" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="DO2" s="15" t="s">
+      <c r="DP2" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="DP2" s="19" t="s">
-        <v>298</v>
-      </c>
       <c r="DQ2" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DR2" s="15" t="s">
         <v>227</v>
@@ -3478,7 +3481,7 @@
         <v>227</v>
       </c>
       <c r="DV2" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="DW2" s="15" t="s">
         <v>226</v>
@@ -3499,13 +3502,13 @@
         <v>227</v>
       </c>
       <c r="EC2" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="ED2" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="ED2" s="20" t="s">
+      <c r="EE2" s="20" t="s">
         <v>301</v>
-      </c>
-      <c r="EE2" s="20" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3591,157 +3594,157 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="AX1" s="21" t="s">
+      <c r="AY1" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
@@ -3749,37 +3752,37 @@
         <v>41</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>355</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>356</v>
-      </c>
       <c r="E2" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>521</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="G2" s="45" t="s">
-        <v>523</v>
-      </c>
       <c r="H2" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="L2" s="45" t="s">
         <v>359</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>360</v>
       </c>
       <c r="M2" s="45">
         <v>8</v>
@@ -3788,97 +3791,97 @@
         <v>215</v>
       </c>
       <c r="O2" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="P2" s="45" t="s">
         <v>361</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="Q2" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="R2" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="S2" s="45" t="s">
         <v>363</v>
-      </c>
-      <c r="R2" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="S2" s="45" t="s">
-        <v>364</v>
       </c>
       <c r="T2" s="45" t="s">
         <v>215</v>
       </c>
       <c r="U2" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="V2" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="W2" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="X2" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y2" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="X2" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y2" s="45" t="s">
+      <c r="Z2" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="AA2" s="22" t="s">
         <v>369</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>370</v>
       </c>
       <c r="AB2" s="45" t="s">
         <v>211</v>
       </c>
       <c r="AC2" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AD2" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE2" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AF2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AH2" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="AH2" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="AN2" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="AO2" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AP2" s="45" t="s">
         <v>215</v>
       </c>
       <c r="AQ2" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AR2" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS2" s="45" t="s">
         <v>380</v>
-      </c>
-      <c r="AS2" s="45" t="s">
-        <v>381</v>
       </c>
       <c r="AT2" s="45">
         <v>100</v>
@@ -3887,44 +3890,44 @@
         <v>100</v>
       </c>
       <c r="AV2" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="AW2" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX2" s="45" t="s">
         <v>382</v>
       </c>
-      <c r="AW2" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="AX2" s="45" t="s">
+      <c r="AY2" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="AY2" s="45" t="s">
+      <c r="AZ2" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="AZ2" s="45" t="s">
-        <v>385</v>
-      </c>
       <c r="BA2" s="45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AX3" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="AX4" s="45" t="s">
         <v>389</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="AX4" s="45" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3941,8 +3944,8 @@
   </sheetPr>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3991,100 +3994,100 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE1" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="AD1" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
         <v>417</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4092,67 +4095,67 @@
         <v>41</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>521</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>523</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="K2" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="L2" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M2" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="R2" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="R2" s="45" t="s">
+      <c r="S2" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="U2" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="S2" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="T2" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>429</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>215</v>
@@ -4161,93 +4164,93 @@
         <v>8</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z2" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA2" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB2" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="AA2" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE2" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="AC2" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AF2" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG2" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="AF2" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>432</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
       <c r="M3" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N3" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="R3" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="O3" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="R3" s="45" t="s">
+      <c r="S3" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="U3" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="S3" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="T3" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="U3" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>429</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>215</v>
@@ -4256,93 +4259,93 @@
         <v>8</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z3" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA3" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB3" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="AA3" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AC3" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE3" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="AC3" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD3" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AF3" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG3" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="AF3" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="AG3" s="15" t="s">
+      <c r="AH3" s="15" t="s">
         <v>432</v>
-      </c>
-      <c r="AH3" s="15" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>389</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>521</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>390</v>
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="M4" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N4" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="R4" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="R4" s="45" t="s">
+      <c r="S4" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="U4" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="S4" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="T4" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>429</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>215</v>
@@ -4351,34 +4354,34 @@
         <v>8</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z4" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA4" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB4" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="AA4" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE4" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="AC4" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AF4" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG4" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="AF4" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AH4" s="15" t="s">
         <v>432</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -4395,8 +4398,8 @@
   </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4424,40 +4427,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>445</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4465,131 +4468,131 @@
         <v>41</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C2" t="s">
-        <v>526</v>
+        <v>418</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>522</v>
       </c>
       <c r="D2" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="45" t="s">
         <v>451</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="K2" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="L2" s="45" t="s">
         <v>452</v>
       </c>
-      <c r="K2" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="L2" s="45" t="s">
+      <c r="M2" s="45" t="s">
         <v>453</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="N2" s="45" t="s">
         <v>454</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C3" t="s">
-        <v>527</v>
+        <v>418</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>523</v>
       </c>
       <c r="D3" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="F3" s="45" t="s">
+      <c r="G3" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="H3" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="45" t="s">
         <v>451</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="K3" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="L3" s="45" t="s">
         <v>452</v>
       </c>
-      <c r="K3" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="L3" s="45" t="s">
+      <c r="M3" s="45" t="s">
         <v>453</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="N3" s="45" t="s">
         <v>454</v>
-      </c>
-      <c r="N3" s="45" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C4" t="s">
-        <v>528</v>
+        <v>418</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>524</v>
       </c>
       <c r="D4" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="F4" s="45" t="s">
+      <c r="G4" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="H4" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="45" t="s">
         <v>451</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="K4" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="L4" s="45" t="s">
         <v>452</v>
       </c>
-      <c r="K4" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="L4" s="45" t="s">
+      <c r="M4" s="45" t="s">
         <v>453</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="N4" s="45" t="s">
         <v>454</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -4607,7 +4610,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4642,55 +4645,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="21" t="s">
         <v>468</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>469</v>
       </c>
       <c r="T1" s="21" t="s">
         <v>204</v>
@@ -4701,88 +4704,88 @@
         <v>41</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>357</v>
+        <v>520</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>470</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>471</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>218</v>
+      <c r="G2" s="45">
+        <v>8</v>
       </c>
       <c r="H2" t="s">
         <v>215</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L2" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="M2" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="N2" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="45" t="s">
         <v>474</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="Q2" s="45" t="s">
         <v>475</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="R2" t="s">
         <v>476</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>528</v>
+      </c>
+      <c r="T2" t="s">
+        <v>299</v>
+      </c>
+      <c r="U2" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="S2" t="s">
-        <v>240</v>
-      </c>
-      <c r="T2" t="s">
-        <v>300</v>
-      </c>
-      <c r="U2" s="45" t="s">
-        <v>478</v>
-      </c>
       <c r="V2" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W2" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y2" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z2" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA2" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AB2" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AC2" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AD2" s="45" t="s">
         <v>215</v>
@@ -4790,91 +4793,91 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>357</v>
+        <v>520</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>358</v>
+        <v>469</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>479</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>218</v>
+        <v>526</v>
+      </c>
+      <c r="G3" s="45">
+        <v>8</v>
       </c>
       <c r="H3" t="s">
         <v>215</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L3" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="M3" s="45" t="s">
         <v>480</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="N3" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>482</v>
-      </c>
       <c r="P3" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q3" s="45" t="s">
         <v>475</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="R3" s="45" t="s">
         <v>476</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="S3" t="s">
+        <v>528</v>
+      </c>
+      <c r="T3" t="s">
+        <v>299</v>
+      </c>
+      <c r="U3" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="S3" t="s">
-        <v>240</v>
-      </c>
-      <c r="T3" t="s">
-        <v>300</v>
-      </c>
-      <c r="U3" s="45" t="s">
-        <v>478</v>
-      </c>
       <c r="V3" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W3" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X3" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y3" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z3" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA3" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AB3" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AC3" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AD3" s="45" t="s">
         <v>215</v>
@@ -4882,91 +4885,91 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>357</v>
+        <v>520</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>387</v>
+        <v>525</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>483</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>218</v>
+        <v>527</v>
+      </c>
+      <c r="G4" s="45">
+        <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>215</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M4" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q4" s="45" t="s">
         <v>485</v>
       </c>
-      <c r="P4" s="45" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q4" s="45" t="s">
-        <v>486</v>
-      </c>
       <c r="R4" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="S4" t="s">
+        <v>528</v>
+      </c>
+      <c r="T4" t="s">
+        <v>299</v>
+      </c>
+      <c r="U4" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="S4" t="s">
-        <v>240</v>
-      </c>
-      <c r="T4" t="s">
-        <v>300</v>
-      </c>
-      <c r="U4" s="45" t="s">
-        <v>478</v>
-      </c>
       <c r="V4" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W4" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X4" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y4" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z4" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA4" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AB4" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AC4" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AD4" s="45" t="s">
         <v>215</v>
@@ -4974,91 +4977,91 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>389</v>
-      </c>
-      <c r="E5" s="45" t="s">
+      <c r="F5" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>489</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>218</v>
+      <c r="G5" s="45">
+        <v>8</v>
       </c>
       <c r="H5" t="s">
         <v>215</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M5" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="O5" s="15" t="s">
+      <c r="P5" s="45" t="s">
         <v>474</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="Q5" s="45" t="s">
         <v>475</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="R5" s="45" t="s">
         <v>476</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="S5" t="s">
+        <v>528</v>
+      </c>
+      <c r="T5" t="s">
+        <v>299</v>
+      </c>
+      <c r="U5" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="S5" t="s">
-        <v>240</v>
-      </c>
-      <c r="T5" t="s">
-        <v>300</v>
-      </c>
-      <c r="U5" s="45" t="s">
-        <v>478</v>
-      </c>
       <c r="V5" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W5" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X5" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y5" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z5" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA5" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AB5" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AC5" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AD5" s="45" t="s">
         <v>215</v>
@@ -5114,64 +5117,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1" s="36" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>495</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="N1" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="P1" s="36" t="s">
         <v>497</v>
       </c>
-      <c r="N1" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="P1" s="36" t="s">
+      <c r="Q1" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="R1" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="T1" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="U1" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="T1" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="U1" s="38" t="s">
+      <c r="V1" s="36" t="s">
         <v>502</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -5179,65 +5182,65 @@
         <v>41</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D2" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>470</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="I2" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="J2" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="I2" s="45" t="s">
-        <v>472</v>
-      </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>505</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>506</v>
       </c>
       <c r="L2" s="35"/>
       <c r="M2" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O2" s="45" t="s">
         <v>218</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q2" t="s">
+        <v>239</v>
+      </c>
+      <c r="R2" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="40" t="s">
-        <v>241</v>
-      </c>
       <c r="S2" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T2" s="43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U2" t="s">
         <v>218</v>
       </c>
       <c r="V2" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -5274,70 +5277,70 @@
     </row>
     <row r="3" spans="1:54" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C3" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>358</v>
-      </c>
       <c r="E3" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F3" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="I3" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="H3" s="30" t="s">
+      <c r="J3" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>480</v>
-      </c>
-      <c r="J3" s="35" t="s">
+      <c r="K3" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="L3" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="L3" s="35" t="s">
-        <v>513</v>
-      </c>
       <c r="M3" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>218</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q3" t="s">
+        <v>239</v>
+      </c>
+      <c r="R3" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="R3" s="40" t="s">
-        <v>241</v>
-      </c>
       <c r="S3" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T3" s="43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U3" t="s">
         <v>218</v>
       </c>
       <c r="V3" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -5374,70 +5377,70 @@
     </row>
     <row r="4" spans="1:54" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D4" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>483</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>388</v>
-      </c>
       <c r="H4" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="K4" s="35" t="s">
         <v>515</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="K4" s="35" t="s">
+      <c r="L4" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="L4" s="35" t="s">
-        <v>517</v>
-      </c>
       <c r="M4" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O4" s="45" t="s">
         <v>218</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q4" t="s">
+        <v>239</v>
+      </c>
+      <c r="R4" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="R4" s="40" t="s">
-        <v>241</v>
-      </c>
       <c r="S4" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T4" s="43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U4" t="s">
         <v>218</v>
       </c>
       <c r="V4" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -5474,68 +5477,68 @@
     </row>
     <row r="5" spans="1:54" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="D5" s="45" t="s">
+      <c r="E5" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" s="45" t="s">
+      <c r="G5" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="I5" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>490</v>
-      </c>
       <c r="J5" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L5" s="35"/>
       <c r="M5" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O5" s="45" t="s">
         <v>218</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q5" t="s">
+        <v>239</v>
+      </c>
+      <c r="R5" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="R5" s="40" t="s">
-        <v>241</v>
-      </c>
       <c r="S5" s="43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="T5" s="43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U5" t="s">
         <v>218</v>
       </c>
       <c r="V5" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6084" yWindow="3012" windowWidth="17280" windowHeight="9108" tabRatio="816" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -88,6 +88,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color indexed="8"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <family val="2"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -174,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -237,6 +242,9 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,8 +1121,8 @@
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1941,9 +1949,9 @@
           <t>CBA UAT DEAL 5</t>
         </is>
       </c>
-      <c r="C2" s="45" t="inlineStr">
-        <is>
-          <t>Sanseera Electronics Ltd 001</t>
+      <c r="C2" s="46" t="inlineStr">
+        <is>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="D2" s="45" t="inlineStr">
@@ -1952,7 +1960,7 @@
         </is>
       </c>
       <c r="E2" s="45" t="n">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="F2" s="45" t="inlineStr">
         <is>
@@ -1999,9 +2007,9 @@
           <t>Work Fax</t>
         </is>
       </c>
-      <c r="O2" s="45" t="inlineStr">
-        <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+      <c r="O2" s="46" t="inlineStr">
+        <is>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="P2" s="7" t="inlineStr">
@@ -2126,12 +2134,12 @@
       </c>
       <c r="AN2" s="45" t="inlineStr">
         <is>
-          <t>RTGSAUD1-5803</t>
+          <t>RTGSAUD1-5801</t>
         </is>
       </c>
       <c r="AO2" s="45" t="inlineStr">
         <is>
-          <t>RTGS-AUD2525</t>
+          <t>RTGS-AUD2523</t>
         </is>
       </c>
       <c r="AP2" s="45" t="inlineStr">
@@ -2614,8 +2622,8 @@
   </sheetPr>
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY9" sqref="AY9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -2942,7 +2950,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="45" t="inlineStr">
         <is>
           <t>1</t>
@@ -2965,17 +2973,17 @@
       </c>
       <c r="E2" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="F2" s="45" t="inlineStr">
         <is>
-          <t>UAT507092020114431</t>
+          <t>UAT508092020174830</t>
         </is>
       </c>
       <c r="G2" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_07092020115134ZWO</t>
+          <t>FACILITY-A_08092020175444CMR</t>
         </is>
       </c>
       <c r="H2" s="45" t="inlineStr">
@@ -3003,9 +3011,9 @@
           <t>Sales Group 1</t>
         </is>
       </c>
-      <c r="M2" s="45" t="inlineStr">
-        <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+      <c r="M2" s="46" t="inlineStr">
+        <is>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="N2" s="45" t="inlineStr">
@@ -3213,7 +3221,7 @@
       </c>
       <c r="G3" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-B_07092020115901PQX</t>
+          <t>FACILITY-B_08092020180052WFP</t>
         </is>
       </c>
       <c r="AX3" s="45" t="inlineStr">
@@ -3230,7 +3238,7 @@
       </c>
       <c r="G4" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-C_07092020120504VXK</t>
+          <t>FACILITY-C_08092020180650LYF</t>
         </is>
       </c>
       <c r="AX4" s="45" t="inlineStr">
@@ -3254,8 +3262,8 @@
   </sheetPr>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3486,12 +3494,12 @@
       </c>
       <c r="D2" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="E2" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_07092020115134ZWO</t>
+          <t>FACILITY-A_08092020175444CMR</t>
         </is>
       </c>
       <c r="F2" s="30" t="inlineStr">
@@ -3586,7 +3594,7 @@
       </c>
       <c r="X2" s="45" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="Y2" s="15" t="inlineStr">
@@ -3658,12 +3666,12 @@
       </c>
       <c r="D3" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="E3" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-B_07092020115901PQX</t>
+          <t>FACILITY-B_08092020180052WFP</t>
         </is>
       </c>
       <c r="F3" s="30" t="inlineStr">
@@ -3741,7 +3749,7 @@
       </c>
       <c r="X3" s="45" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="Y3" s="15" t="inlineStr">
@@ -3813,12 +3821,12 @@
       </c>
       <c r="D4" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="E4" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-C_07092020120504VXK</t>
+          <t>FACILITY-C_08092020180650LYF</t>
         </is>
       </c>
       <c r="F4" s="30" t="inlineStr">
@@ -3896,7 +3904,7 @@
       </c>
       <c r="X4" s="45" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="Y4" s="15" t="inlineStr">
@@ -3966,7 +3974,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4071,7 +4079,7 @@
       </c>
       <c r="C2" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_07092020115134ZWO</t>
+          <t>FACILITY-A_08092020175444CMR</t>
         </is>
       </c>
       <c r="D2" s="45" t="inlineStr">
@@ -4143,7 +4151,7 @@
       </c>
       <c r="C3" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-B_07092020115901PQX</t>
+          <t>FACILITY-B_08092020180052WFP</t>
         </is>
       </c>
       <c r="D3" s="45" t="inlineStr">
@@ -4215,7 +4223,7 @@
       </c>
       <c r="C4" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-C_07092020120504VXK</t>
+          <t>FACILITY-C_08092020180650LYF</t>
         </is>
       </c>
       <c r="D4" s="45" t="inlineStr">
@@ -4290,7 +4298,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4432,7 +4440,7 @@
       </c>
       <c r="C2" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="D2" s="45" t="inlineStr">
@@ -4442,17 +4450,17 @@
       </c>
       <c r="E2" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_08102019114315QEE</t>
+          <t>FACILITY-A_08092020175444CMR</t>
         </is>
       </c>
       <c r="F2" s="45" t="inlineStr">
         <is>
-          <t>60000017</t>
+          <t>60000708</t>
         </is>
       </c>
       <c r="G2" s="45" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -4512,7 +4520,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>RTGS-AUD2525</t>
+          <t>RTGS-AUD2523</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -4584,7 +4592,7 @@
       </c>
       <c r="C3" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="D3" s="45" t="inlineStr">
@@ -4594,17 +4602,17 @@
       </c>
       <c r="E3" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_07092020115134ZWO</t>
+          <t>FACILITY-A_08092020175444CMR</t>
         </is>
       </c>
       <c r="F3" s="45" t="inlineStr">
         <is>
-          <t>60000667</t>
+          <t>60000709</t>
         </is>
       </c>
       <c r="G3" s="45" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -4664,7 +4672,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>RTGS-AUD2525</t>
+          <t>RTGS-AUD2523</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -4736,7 +4744,7 @@
       </c>
       <c r="C4" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="D4" s="45" t="inlineStr">
@@ -4746,17 +4754,17 @@
       </c>
       <c r="E4" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-B_07092020115901PQX</t>
+          <t>FACILITY-B_08092020180052WFP</t>
         </is>
       </c>
       <c r="F4" s="45" t="inlineStr">
         <is>
-          <t>60000668</t>
+          <t>60000710</t>
         </is>
       </c>
       <c r="G4" s="45" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -4816,7 +4824,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>RTGS-AUD2525</t>
+          <t>RTGS-AUD2523</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -4888,7 +4896,7 @@
       </c>
       <c r="C5" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="D5" s="45" t="inlineStr">
@@ -4898,17 +4906,17 @@
       </c>
       <c r="E5" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-C_08102019115619IXL</t>
+          <t>FACILITY-C_08092020180650LYF</t>
         </is>
       </c>
       <c r="F5" s="45" t="inlineStr">
         <is>
-          <t>60000032</t>
+          <t>60000711</t>
         </is>
       </c>
       <c r="G5" s="45" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -4968,7 +4976,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>RTGS-AUD2525</t>
+          <t>RTGS-AUD2523</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -5195,12 +5203,12 @@
       </c>
       <c r="C2" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="D2" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_08102019114315QEE</t>
+          <t>FACILITY-A_08092020175444CMR</t>
         </is>
       </c>
       <c r="E2" s="37" t="inlineStr">
@@ -5210,7 +5218,7 @@
       </c>
       <c r="F2" s="45" t="inlineStr">
         <is>
-          <t>60000017</t>
+          <t>60000708</t>
         </is>
       </c>
       <c r="G2" s="30" t="inlineStr">
@@ -5251,7 +5259,7 @@
       </c>
       <c r="O2" s="45" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="P2" s="40" t="inlineStr">
@@ -5261,7 +5269,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>RTGS-AUD2525</t>
+          <t>RTGS-AUD2523</t>
         </is>
       </c>
       <c r="R2" s="40" t="inlineStr">
@@ -5281,7 +5289,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="V2" s="44" t="inlineStr">
@@ -5335,12 +5343,12 @@
       </c>
       <c r="C3" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="D3" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-A_07092020115134ZWO</t>
+          <t>FACILITY-A_08092020175444CMR</t>
         </is>
       </c>
       <c r="E3" s="37" t="inlineStr">
@@ -5350,7 +5358,7 @@
       </c>
       <c r="F3" s="45" t="inlineStr">
         <is>
-          <t>60000667</t>
+          <t>60000709</t>
         </is>
       </c>
       <c r="G3" s="30" t="inlineStr">
@@ -5395,7 +5403,7 @@
       </c>
       <c r="O3" s="45" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="P3" s="40" t="inlineStr">
@@ -5405,7 +5413,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>RTGS-AUD2525</t>
+          <t>RTGS-AUD2523</t>
         </is>
       </c>
       <c r="R3" s="40" t="inlineStr">
@@ -5425,7 +5433,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="V3" s="44" t="inlineStr">
@@ -5479,12 +5487,12 @@
       </c>
       <c r="C4" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="D4" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-B_07092020115901PQX</t>
+          <t>FACILITY-B_08092020180052WFP</t>
         </is>
       </c>
       <c r="E4" s="37" t="inlineStr">
@@ -5494,7 +5502,7 @@
       </c>
       <c r="F4" s="45" t="inlineStr">
         <is>
-          <t>60000668</t>
+          <t>60000710</t>
         </is>
       </c>
       <c r="G4" s="30" t="inlineStr">
@@ -5539,7 +5547,7 @@
       </c>
       <c r="O4" s="45" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="P4" s="40" t="inlineStr">
@@ -5549,7 +5557,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>RTGS-AUD2525</t>
+          <t>RTGS-AUD2523</t>
         </is>
       </c>
       <c r="R4" s="40" t="inlineStr">
@@ -5569,7 +5577,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="V4" s="44" t="inlineStr">
@@ -5623,12 +5631,12 @@
       </c>
       <c r="C5" s="45" t="inlineStr">
         <is>
-          <t>UAT5_07092020114431</t>
+          <t>UAT5_08092020174829</t>
         </is>
       </c>
       <c r="D5" s="45" t="inlineStr">
         <is>
-          <t>FACILITY-C_08102019115619IXL</t>
+          <t>FACILITY-C_08092020180650LYF</t>
         </is>
       </c>
       <c r="E5" s="37" t="inlineStr">
@@ -5638,7 +5646,7 @@
       </c>
       <c r="F5" s="45" t="inlineStr">
         <is>
-          <t>60000032</t>
+          <t>60000711</t>
         </is>
       </c>
       <c r="G5" s="30" t="inlineStr">
@@ -5679,7 +5687,7 @@
       </c>
       <c r="O5" s="45" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="P5" s="40" t="inlineStr">
@@ -5689,7 +5697,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>RTGS-AUD2525</t>
+          <t>RTGS-AUD2523</t>
         </is>
       </c>
       <c r="R5" s="40" t="inlineStr">
@@ -5709,7 +5717,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>SANSEERA ELECTRONICS LTD 001</t>
+          <t>SANSEERA ELECTRONICS LTD 007</t>
         </is>
       </c>
       <c r="V5" s="44" t="inlineStr">
